--- a/data/hotels_by_city/Dallas/Dallas_shard_3.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="656">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>nofatboys</t>
+  </si>
+  <si>
     <t>05/25/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Jennifer H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r549472708-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Stayed here one night before a flight from Love Field. Room was very comfortable and sported a loft feeling. The room felt open and normal clutter was tucked away. Bathroom had the toilet and shower with the sink in a separate area. Surprisingly, it was very quiet for being so close to the airport. I don't remember hearing any noise from planes from check in to check out. The guy at the front desk was very friendly and asked our preference of a room (elevator proximity, floor level). He also introduced us to the robot butler who will bring you whatever you need - cool feature, too bad we didn't get a chance to use it. Hotel was easy to find, but beware the Dallas traffic can get backed up around dinner time.More</t>
   </si>
   <si>
+    <t>shawnewesrghv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r581122621-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>Had a long day, flight delays, lost some of my luggage so when I got to the hotel all I wanted to do is grab a cold one and relax. I got to the hotel 10 min before midnight and was informed that the bar did last call but luckily Troy at the front desk walked over to Darius the bartender to see if get a beer before he shut down and he took care of me. Was well needed so appreciate it fellas!</t>
   </si>
   <si>
+    <t>jumbotron867</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r581002927-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>Had a lovely experience checking in with Cashmere. She gave me great detail about the hotel. Very nice hotel and very cool that’s it two &amp; one. The whole staff was great, had an one issue with my bill at check out but Troy took care of that for me.</t>
   </si>
   <si>
+    <t>OMGYoga</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r579756273-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>The Aloft staff is exceptional!  The only reason they score 4 out of 5 is because their shuttle is only available until 11pm and the hotel is so close to DFW/Love Field that Lyft and cab drivers dread the idea of taking you only 1.4 miles from airport curbside.  Plus, when we finally got to our room after a flight delay, the toilet had been disconnected.  Upside, after a 1:11 am call to the front desk, a maintenance guy was there within minutes to fix the plumbing snafu.  Everything else was exceptional,  location, price, convenience store and decor.  We LOVE The Aloft at LOVE!  Thanks for everything.</t>
   </si>
   <si>
+    <t>dragonchamp85j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r578155421-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>kevinyewlee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r578137814-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -285,6 +306,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>bigkel74767</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r577799695-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>Great hotel and the staff is wonderful the shuttle drivers are top notch ! Same with the front desk  they are really helpful and curtious . As far as I'm concerned I don't think I will be staying anywhere else !</t>
   </si>
   <si>
+    <t>Nik3300</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r574651767-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t>This is the 2nd time we have stayed here. Last time we stayed, the AC never came on. But, we only stayed for one night and just let it go. This time, we come in after a long volleyball tournament. We walked into the room,  it’s hot, so we turn the thermostat down to 65 degrees, AC never comes on. We tried auto, then just the just the fan, nothing. Called front desk and they did send someone and it came on for about 10 minutes and now it’s off again. There’s now way that it’s at the targeted temperature on the display. While the maintenance man was here looking at it he said that they’ve had issues with the wire and they are being replaced. But if we had anymore issues to let them and he would do what he did again. I asked for him to show me what he did so we could get the AC on but he said he would have to do it.We have to be at the convention center at 7:00 a.m. and it’s too late to have him tinker with it again. Had my husband to go buy a fan. #nothinhgworsethantryingtosleepwithnoaircondititnor.1st time a fluke, 2nd time is a problem. Won’t be back unless something drastically changes. More</t>
   </si>
   <si>
+    <t>Jose L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r574256881-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -336,6 +366,9 @@
     <t>Your bar tender Brittany was amazing! We had the best time with her! She was very friendly and hospitable! She made some great suggestions for dinner and was very knowledgeable on all types of drinks. She’s awesome!</t>
   </si>
   <si>
+    <t>Samanthasosassy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r574210805-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +381,9 @@
     <t>I have never had a poor experience with this Aloft. The rooms are clean, smell great, modern and I personally love the glass showers! What a heavenly bed! I can sleep in the Aloft bed all day! I love this hotel. Hands down great service. The Aloft offers cute carts to help you bring items to and from your room and this robot type device that assists with your needs (modern). I will always visit this particular hotel when im visiting Dallas.</t>
   </si>
   <si>
+    <t>Brittany S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r572628633-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,6 +399,9 @@
     <t xml:space="preserve">Very clean, fun hotel with great customer service! Shout out to Brad who gave me a complimentary upgrade and brought the bag I left in the hotel over the weekend to my room before I even checked in.The hotel is very close to dallas love airport but easy to get to from DFW. The Aloft has a bar and is attached to another hotel The Element. I’ve also stayed at the Element and if you’re deciding between the two, the difference is that The Element has kitchens (without ovens though). I’d stay at both the Element and Aloft again! </t>
   </si>
   <si>
+    <t>DJinTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571792040-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -381,6 +420,9 @@
     <t>I stayed here for two nights while in town for an interview.  The Aloft hotel has a really cool, hip vibe.  I enjoyed my stay.  The front desk clerk was very friendly and very helpful.  They have free coffee available for guests in the morning.  The gym was large (for a hotel gym) and clean.  The bed was very comfortable, and the TV was very large.  Even though the hotel is near Love Field I didn't hear any planes at all.  There was a small fridge in the room, but no microwave.  My one suggestion for improvement would be to add a microwave to the guestrooms.  I highly recommend this hotel!More</t>
   </si>
   <si>
+    <t>joannahkimms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571754345-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -393,6 +435,9 @@
     <t>This hotel is awesome! Everybody is soooo friendly and nice. Jose was helpful, Brad goes out of his way, Troy was nice and helpful with his bright smile! The bartender I forgot her name but took good care of else and makes awesome drinks! Even tho it was short we enjoyed every second of our stay!!</t>
   </si>
   <si>
+    <t>Clinton S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571450159-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -414,6 +459,9 @@
     <t>I was in Dallas for a night or two and Aloft Dallas looked like a good option.  I had stayed at an Aloft in LA a couple of times and it was a good experience.  Check in was fast and the staff friendly and helpful.  I asked for a room not too high and close to the elevator as it was only for a night.  I woke in the morning, made a latte downstairs and left.  As it turned out I finished early but was unable to change my flight so I booked another night.  It was more expensive due to supply, but still reasonable. I returned my rent a car the night prior so that I could just take the shuttle in the morning. It was all a painless experience. I would recommend this hotel and Aloft as a brand. My recommendations to Aloft, I would like another light in the hotel room, it seemed to be missing a light at the foot of the bed, perhaps centered where the bench, luggage rack sits.  I also use ironing boards and the short little ones are not acceptable in my opinion.More</t>
   </si>
   <si>
+    <t>Anna21482018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571132470-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -432,6 +480,9 @@
     <t>I was here on a very long overnight for work and the staff was very helpful in making me feel at home on my stay. Kyron was the first face I saw and was a great welcoming to the Aloft. He answered all my questions and was very friendly. I received a drink coupon for the live music and Brittany was a great bartender. She’s personable and great at what she does. Priscilla helped out with the menu and suggestions and brought out my food that was delicious. Amber has a great team and I was very happy to have made friends out of your staff! Thank you for having such a great team at this Aloft!! I would be very happy if my work put me here again!More</t>
   </si>
   <si>
+    <t>sallyjames77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571094643-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -444,6 +495,9 @@
     <t>Recently stayed here and have to say what a fabulous hotel!!!! Troy at check in took good care of me!!! I was upset that the bar was close and he offered me a snack from the pantry area. The beds are really comfortable and the scent of the hotel is amazing!! Will be back!</t>
   </si>
   <si>
+    <t>austinx80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r569982391-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -457,6 +511,9 @@
   </si>
   <si>
     <t>I love the upgrade at this hotel it's fun and comtable and the staff is great. Thanks u so much KAZ for your great service and help with checking us in and free 2 drinkssouthwest loves u. Great place and loving staff</t>
+  </si>
+  <si>
+    <t>ddmullis</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r569512995-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -483,6 +540,9 @@
 Overall, I was NOT impressed...Disappointment is the first word that comes to mind when I reflect on my recent stay at the Aloft hotel at Dallas Love Field.  The hotel is new, a beautiful public area including the pool and even the rooms.  The disappointment comes once you start interacting with most of the staff at this hotel and realize they don’t have a clue about how to take care of their guests and in particular their elite guest. Upon check-in, I was not offered any upgrade with my platinum status NOR was it even recognized.  I was given a decent room but overall very small with no chair or couch to lounge in during my stay.  I had to go back and request my complimentary breakfast which turned out to be a complete joke when you realize they are charging $8 for half scoop of hashbrowns, some fake cheese, and few bacon crumbles.  The food prices for what you get are completely crazy in a bad way.  To avoid getting my rental car towed, I had to go back to the front desk and request a parking pass, of course, they charge $8 per night extra and I never once saw any security managing the lot.  If you return later evening, you park in the far rear of the hotel but have to walk all the way back around to the main front entrance to get back inside. Overall, I was NOT impressed with this hotel OR staff during my recent stay.   More</t>
   </si>
   <si>
+    <t>Maureen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r569399248-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -498,6 +558,9 @@
     <t>First off Ad and KY wow how exceptional these young men are. I have never had so much fun checking in and socializing in a hotel ever in my life.Not to mention Brittany in the Bar, great customer service and wow . That girl can make  and Old Fashioned and she makes it funThis hotel is so awesome from every angle !! Stay here, it will not disappoint!!</t>
   </si>
   <si>
+    <t>barbaraminos374</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r568635614-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -513,6 +576,9 @@
     <t>Was running late for the shuttle, it runs every half an hour and I literally got to the desk at 6:33am. Fortunately though Troy was nice enough to see if the shuttle driver could turn around because I was in a hurry and couldn't wait another half an hour. The shuttle did come back and Cam the shuttle driver was able to get me to my destination on time. I really appreciate them going the extra mile.</t>
   </si>
   <si>
+    <t>Kimberly H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r568127390-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,6 +594,9 @@
     <t xml:space="preserve">The staff was so friendly. Jose and Josh at the front desk made it feel like I was family. I've NEVER experienced this in all my stays at a hotel. The shuttle drivers were informative when it came to recommendations on where to go eat. It was well lit, which made me feel safe. It was very modern and had such a cool vibe to it. I'll definitely be back! </t>
   </si>
   <si>
+    <t>Jeanna T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r567905173-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -543,6 +612,9 @@
     <t>I flew in for an interview the day before and there seemed to be a lot of people checking in at that time. They were extremely busy and Allen so graciously took me to the element side and ALLEN MADE SURE Everything WAS PERFECT! Unfortunately I split my pants on my way to the hotel and CURTIS the hotel van driver took me to Target and picked me up! The customers service was above and beyond! I will definitely stay again, room was great also!  Couldn't have asked for a better experience! Thanks guys!</t>
   </si>
   <si>
+    <t>foxylov</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r567341396-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -561,6 +633,9 @@
     <t>I'm so glad I booked this hotel. My first experience was with the complimentary shuttle service from Dallas Love Field. Loved it. I believe it picks up every 30 minutes or so. The driver was courteous and professional. The airport is less than two miles away from the hotel. Can we say convenient.  Pulling up to the hotel you'll see construction taking place around the hotel. This in no way impedes on guests coming or going. The hotel grounds and exterior are nice. Elements and Aloft are in the same building . Aloft takes over the left side while Elements occupies the right. A nice lounge awaits you on either side. Comfy places to sit, a fireplace, a long with a tv fit perfectly. The grab in go cafe, a pool table, bar/ restaurant are located in the lounge as well. The Kaz greeted me with exceptional customer service. She answered all my questions about the rooms at Aloft. My room was on the third floor. I opened the door and fell in love. The hotel has a modern feel. No bathtub not a problem because the shower was great. The king size bed was super duper comfy. All in all I liked my room. No complaints. The hotel(s) manager is Adrian. He's both kind, and courteous. Kyron is the young man at the guest reception desk. Nice as he can be. He answered questions I had about the hotel...I'm so glad I booked this hotel. My first experience was with the complimentary shuttle service from Dallas Love Field. Loved it. I believe it picks up every 30 minutes or so. The driver was courteous and professional. The airport is less than two miles away from the hotel. Can we say convenient.  Pulling up to the hotel you'll see construction taking place around the hotel. This in no way impedes on guests coming or going. The hotel grounds and exterior are nice. Elements and Aloft are in the same building . Aloft takes over the left side while Elements occupies the right. A nice lounge awaits you on either side. Comfy places to sit, a fireplace, a long with a tv fit perfectly. The grab in go cafe, a pool table, bar/ restaurant are located in the lounge as well. The Kaz greeted me with exceptional customer service. She answered all my questions about the rooms at Aloft. My room was on the third floor. I opened the door and fell in love. The hotel has a modern feel. No bathtub not a problem because the shower was great. The king size bed was super duper comfy. All in all I liked my room. No complaints. The hotel(s) manager is Adrian. He's both kind, and courteous. Kyron is the young man at the guest reception desk. Nice as he can be. He answered questions I had about the hotel and the surrounding area. Dedra's the nice lady at the bar. She took my order and offered a suggestion from the menu. Thanks Dedra! I strongly recommend this hotel. Thank you Adrian, Kyron, Kaz, and Dedra!!More</t>
   </si>
   <si>
+    <t>texasmom79121</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r567328784-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -576,6 +651,9 @@
     <t>We often need to stay by Love Field airport to catch early flights back home.  So, when we finally had the chance to stay at the Aloft, I jumped on the chance.  I booked my reservation 60 days before my one night stay.  We are a family of 4 and needed a room with 2 queen beds.  (We always stay at the Doubletree but was excited to try something new.)   When I made my reservation, I made a special request to notify them that we would not be getting until 11:00 pm.  My reservation was confirmed and did not expect anything to go wrong.  Well, I call at 11:00 asking about a shuttle and they call the shuttle driver and tell him to wait for us.  We get out there at 11:15 and wait until 11:30.  No shuttle.  I called the hotel again and they said it was done for the night.  (To their credit, the website does say it shuts down at 11:00, but my husband said they were still driving people around when he went down to lobby at 12:30.)   So, we take Lyft.   When we get there to check in, the front desk guy tells me that they are unfortunately sold out of the rooms with queen beds and only has rooms with king beds.  He says that Expedia overbooked their rooms.   He then calls the downtown hotel to check for availability.  (Who wants to stay there...We often need to stay by Love Field airport to catch early flights back home.  So, when we finally had the chance to stay at the Aloft, I jumped on the chance.  I booked my reservation 60 days before my one night stay.  We are a family of 4 and needed a room with 2 queen beds.  (We always stay at the Doubletree but was excited to try something new.)   When I made my reservation, I made a special request to notify them that we would not be getting until 11:00 pm.  My reservation was confirmed and did not expect anything to go wrong.  Well, I call at 11:00 asking about a shuttle and they call the shuttle driver and tell him to wait for us.  We get out there at 11:15 and wait until 11:30.  No shuttle.  I called the hotel again and they said it was done for the night.  (To their credit, the website does say it shuts down at 11:00, but my husband said they were still driving people around when he went down to lobby at 12:30.)   So, we take Lyft.   When we get there to check in, the front desk guy tells me that they are unfortunately sold out of the rooms with queen beds and only has rooms with king beds.  He says that Expedia overbooked their rooms.   He then calls the downtown hotel to check for availability.  (Who wants to stay there when leaving the next morning really early????  It is now midnight!)   I then ask for 2 rooms with king beds to accommodate my family.  I did not book through Expedia.  I am an SPG member and booked through their site!  Shouldn't I be given some priority?    The front desk guy tries to charge me full price for 2 rooms.  I told him that was not fair and he gave me 1/2 off on the second room.  This was still not fair.  They should have given me the second room.  This was their fault.     Do they do this to all travelers?   They know you are tired and just want a place to sleep.  I wonder if this is their scam to get more money from people.I had a choice when I booked this room 60 days before my night stay.   I will not choose Aloft again.   If others have had a similar experience, this needs to be explored ...More</t>
   </si>
   <si>
+    <t>Michel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r567058527-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,6 +669,9 @@
     <t>Brittany, Darius &amp; Edward provided exceptional service, even with me being picky about my food they made sure I received great service. I enjoyed every night I spent at the hotel, despite my long working days. I must also say Curtis (shuttle guy) also checked it with us to make sure we had lunch and if not offered to take us to a near by restaurant. My colleague &amp; I were both very thankful for Curtis because we really didn't have time to eat &amp; with his help it made our work day easier. Great service from the Aloft Team ! Will definitely be back for a stay!</t>
   </si>
   <si>
+    <t>Tanya B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r566769035-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -606,6 +687,9 @@
     <t>Darius has been the best and most amazing bartender that I’ve had in a very long long time. His drinks and personality is off the charts and he’s been the best sport about all of our crazy jokes and stories</t>
   </si>
   <si>
+    <t>Jack E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r563694178-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -621,6 +705,9 @@
     <t>Quiet, clean and nicely detailed hotel. Close and convenient to airport. Make sure to chat with DT at breakfast...he’s a huge Dallas Cowboy fan. Friendliness like that in the morning is just as good as a cup of coffee.</t>
   </si>
   <si>
+    <t>kaylapiercemck11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r562626511-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -639,6 +726,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Tonia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r561800205-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,6 +747,9 @@
     <t>My husband and I spent two nights at the Aloft Love Field this past weekend. We actually had reservations at another hotel in Dallas, but were dismayed upon check-in with the condition of the property. So we left and found the Aloft on a whim. We were very glad that we did! The hotel is in a convenient location with plenty of lighting so we felt safe walking to and from the parking lot. The Aloft is pet friendly which is important to us. The vibe in this hotel is so cool! There is plenty of space in the lounge area to just sit and mingle. I believe there is also a pool table but I might be wrong about that. The atmosphere is comfortable and modern; the employees are all friendly and welcoming. The pool area was gorgeous, but it was too cold for anyone to enjoy this time of year. We are never disappointed when staying at an Aloft hotel.More</t>
   </si>
   <si>
+    <t>MandevilleDad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r560337074-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +765,9 @@
     <t>This is a chic hotel. But also convenient. Less than 5m shuttle trip from Love Field. They even sent the shuttle to pick me up at the car rental (saved $60 by being able to turn in early). It is actually 2 hotels in one. The room set up is nice. Large bathroom. Only complaint is a weird opaque window between the shower and the room sends light throughout room. No way anyone could sleep. The coolest feature is a robot that brings you treats, too cool.</t>
   </si>
   <si>
+    <t>mosleydeja</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r560119965-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -690,6 +786,9 @@
     <t>My aunt, grandma &amp; i had an inconvenient situation. Attempting to fly back to Chicago, our flights were canceled. We checked into Aloft, as a last minute thing. We got dropped off tired &amp; frustrated. When i tell you the man at the front desk was BEAUTIFUL... he made me wake up. He was extremely handsome, if i could get his number , i would have. We were greeted by both people at the desk. All smiles &amp; good vibes. Walking toward the elevator, there was lemon/lime water, cold &amp; fresh. We stayed on the 8th floor, we got into our room &amp; it was very cozy, clean &amp; sheik looking. The bathroom design was very nice, dark colors are nice to me. Everyone was very nice &amp; made us feel welcomed. Even checking out was a breeze. I plan to visit Dallas again this year, 2018, if i do, I’ll definitely book at this hotel again. They don’t have free breakfast. However, it’s still delicious. Id recommend this location to anyone looking for hotels for a visit to dallas!More</t>
   </si>
   <si>
+    <t>Mr13204u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r558314513-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -706,6 +805,9 @@
   </si>
   <si>
     <t>January 2018</t>
+  </si>
+  <si>
+    <t>godsbooboo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r557139179-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -740,6 +842,9 @@
 I guess I expected more from an "urban" "modern" hotel.  Just my opinion, but I would say the effort put into...I had been curious about this hotel and wanting to try it for many months. I had the opportunity the night before a flight. The positives:  location, exercise equipment and a comfortable bed.Check-in was the second worst I've ever experienced (first was in 1993 in Boston).  I had reserved a room under the prepaid rate and received an email confirmation the night before. At check-in the man kept saying the credit card on the reservation was denying payment. I showed him my email confirmation, twice; he went to an office to look for some woman but was told she was gone for the day.  Ultimately he figured it out and we were checked in and on our way to our room.  I fault management for leaving someone at the front desk, on a Saturday afternoon, who clearly did not know what he was doing.This hotel is supposedly "green."  No recycle receptacles were in our room, only trash bins. The interior of the sliding door to the toilet had splashed stains on the bottom with hair stuck to it and the interior hand grip to open the door was on the wrong end. The faucet over the sink was loose and wobbly. The lids for the coffee cups by the coffee maker had old coffee stains on them. I guess I expected more from an "urban" "modern" hotel.  Just my opinion, but I would say the effort put into a modern and popular design should have been put forth in the management and upkeep of the hotel.More</t>
   </si>
   <si>
+    <t>mom72403</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r556786030-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -764,6 +869,9 @@
     <t>Excellent hotel.  Great staff, super clean!   We really enjoyed our stay. Easy drive to convention center, airport and Northpark shopping/dining area.  Great value for a trendy place with a great hotel lobby atmosphere/bar, board games, pool table.  More</t>
   </si>
   <si>
+    <t>stevenhou77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r556340269-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -782,6 +890,9 @@
     <t>I stayed at the aloft/element recently and throughout my stay I kept getting misdirected rather it be looking for a package, getting something sent up to my room (asked for toothpaste had to call 3 times to get it) , not having my room serviced for the day even when i personally told the housekeeper can she make sure it was done. So so far I wasn’t having the best time even though staff was friendly. It took for me to come down for a snack when the 2 gentlemen at the desk Troy &amp; Manny asked me how I was my room &amp; stay so far. I told them the situation and Troy apologized and asked me did I want something from the snack area which I grabbed a soda. These 2 stood out to me because of their conversation and hospitality and appreciated the niceness and the gesture.More</t>
   </si>
   <si>
+    <t>betsy2626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r555260469-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -797,6 +908,9 @@
     <t>I had never stayed at an Aloft but will again for sure.  It was very clean and the customer service was exceptional.  Great, engaging front desk staff and I love the "butler"/robot.I would like to mention Allen, Kazhimere, Brad</t>
   </si>
   <si>
+    <t>Kaity5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r554863672-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -812,6 +926,9 @@
     <t>My daughter have been staying here since it opened.  We are here almost monthly.  The hotel is always very attractive and clean.  Ky, Donald, Adrian and a gentleman bar tender go out of their way to accommodate any need we may have.  They are a real asset to the hotel.  The Robot always brings a smile to our face.</t>
   </si>
   <si>
+    <t>Roxann F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r554222050-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -836,6 +953,9 @@
     <t>Thank you for friendly staff at night at the XYZ bar and checking. The manager Adrian greeted me while checking in and the next morning. Excellent Customer Service. Room was excellent comfortable and full Suite. Highly recommend. More</t>
   </si>
   <si>
+    <t>kingbethany</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r548814389-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -854,6 +974,9 @@
     <t>Our first experience with Aloft was when we called to confirm that we could bring our 3 small dogs (since most hotels have a 2 dog limit) and the man who answered the phone was so happy and so cheerful when he said we could have all 3 dogs! Excellent customer service! Pros:Beautiful, new, hotel. Amazing amenities. Bar. Pool table and board games. Beautiful pool. Dog friendly with no pet fee! Comfy bed. Big TV! Great location. Such friendly employees!! (You can never truly say enough about excellent customer service!) Cons:Parking is kinda terrible. The spots are very small so if you can manage to get your vehicle in the spot correctly you probably won’t be able to open your car door. There are two bright flashing lights on the ceiling. I’m guessing the smoke detectors? Just way overly bright. Like constant lightning.The pillows suck. Basically pockets of air that disappear when laying your head down.The hotel charged my credit card twice for the room. Once when I prepaid and then again on arrival. I’m not really sure why that happened but I will update review if it’s a hassle getting the second charge removed.Overall, the pros definitely outweigh the cons and this is an amazing hotel experience. I want to stay here every time we come to Dallas in the future! More</t>
   </si>
   <si>
+    <t>julieddavis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r547005271-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -878,6 +1001,9 @@
     <t>Even though we are local to the Dallas area, I booked this hotel for my husband and me to stay in after an event instead of driving home late to the 'burbs. I chose it for its proximity to the venue and price ($113+tax). The room and bed were comfortable, but there is no bathtub - just a stand-up shower. This hotel isn't for romance - It's very basic, but it's exactly what you need if you are traveling for business and want to be close to Love Field. I didn't, however, appreciate the maid knocking on our door at 9:00 AM to make sure we were checking out (which wasn't until 12:00 PM).More</t>
   </si>
   <si>
+    <t>Liliana P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r544333702-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -893,6 +1019,9 @@
     <t xml:space="preserve">I’m a local but new to the Dallas area. I went to grab a few drinks by the bar, Darius the Bartender was well educated when it came down to knowing his liquor  it was amazing how even when the bar was busy and he was solo he manage to keep everyone at the bar smiling i work in hospitality industry so i have an eye when it comes to observing good customer service 2 thumbs up keep up  i will definitely be back </t>
   </si>
   <si>
+    <t>Michaelexamines1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r541648262-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1049,9 @@
     <t>The Aloft Dallas Love Field is a wonderful hotel with a nicely equipped gym. This was my first Aloft experience. The hotel has large rooms with fantastic views.  I found the room to be nicely decorated, extremely clean and comfortable. The entire staff are friendly and helpful.  Once particular staff extended himself to make sure my stay was quite comfortable.  Brad Rodriguez is a real professional. He promptly assisted me, and a colleague, and took the time to listen to ensure our needs were met to our fullest satisfaction - Thank you, Brad!  This is a great hotel and I sincerely look forward to staying there again!  Thank you, Aloft!More</t>
   </si>
   <si>
+    <t>jefferyhalss201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r541425381-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -956,6 +1088,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>taitaylor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r534887813-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1106,9 @@
     <t>Hello, I would like to advise you of my visit to your location.    I was checked in by Ky who was awesome by the way.  He’s was courteous and let me know everything that was available on my stay there.    I will definitely refer friends and colleagues!!!</t>
   </si>
   <si>
+    <t>MoonWillow420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r527899344-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -992,6 +1130,9 @@
     <t>I stayed here a couple of months ago and had a really rough time since I brought my dogs and I wrote a review that reflected that experience. After speaking with the manager I decided to stay again and I am pleased to write this very high. There have been many changes including staff. One staff member in particular Sandy at the front desk is awesome and very helpful very personable she remembered me from staying here before and that meant a lot. The beds are extremely comfortable and so are the pillows I asked for it to be defeathered and they did it immediately and it is still very comfortable. The entire property including the element side is very clean and the housekeeping does a great job keeping everything clean and stocked. There still is Construction but there's nothing the hotel can do about that until it is completed.  My dogs are with me again and now that I understand how Urban living is we have made the appropriate adjustments and my dogs are enjoying the city walks and even using the elevator now. I highly recommend this hotel for the cleanliness the location and the staff.More</t>
   </si>
   <si>
+    <t>jwylie65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r527716220-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1007,6 +1148,9 @@
     <t>I had an absolutely amazing stay at the Aloft Dallas Love Field! The rooms were nice, the hotel was clean and new, and the customer service was amazing. But I would have to say my reason for writing such a great review is because of the bartender Beth! She was awesome! She was very busy tending the bar but had a smile on her face and a quickness and her step with every move. She carried on great conversation with everyone at the bar, we were all raving about her and her fun energy! Thanks again for your amazing service, Beth! I will be back!</t>
   </si>
   <si>
+    <t>Katie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r522727404-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1175,9 @@
     <t>The hotel is just exactly what you should expect for the price point. But the employees are on point! Kyron has been fantastic...going above and beyond to help me! He went out of his way to deliver items to my room and remembered my name every time I walked in the door. Sometimes it can be the little things that make you feel special and home in a city far away from home. And, Darious, the bartender, deserves a shout out. Friendly and makes a great drink!! More</t>
   </si>
   <si>
+    <t>Kayla O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r522450636-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1196,9 @@
     <t>Keith is so accommodating! He is such a gentlemen! He provides exceptional customer service and is so friendly! He was patient with my coworkers and I and was glad to suggest different shops and restaurants nearby. We are a lot of laughs and fun and he was a good sport! We will definitely be requesting that our company keep us at aloft! It's so comforting to know that we will be taken care of by such wonderful staff! The rest of the staff is wonderful as well! More</t>
   </si>
   <si>
+    <t>Tia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r522449497-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1214,9 @@
     <t>Keith is such an exceptional driver. He was amazing from beginning to end. He was full of so much personality that made us feel very welcomed. Such a huge asset to the hotel. We will definetly be back to see him. Such a gentleman!More</t>
   </si>
   <si>
+    <t>Vanessa N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r521233311-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1241,9 @@
     <t>My stay here is always convenient and rewarding. I LOVE the technology and the pool. Kyron is always super friendly and helpful. The food and bar are really good too. The parking and gym are the best and both really big.More</t>
   </si>
   <si>
+    <t>fanchon m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r520837349-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1268,9 @@
     <t>My stay here has been awesome! I miss it every time I leave. The staff here is one of the nicest, most accommodating staff I've ever met. Kyron especially will greet you at the front desk and get you checked in with easy and speed! :) More</t>
   </si>
   <si>
+    <t>Robbin V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r518534448-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1139,6 +1298,9 @@
     <t>My husband I and stayed here the night before catching an early flight out of Love Field. It is very conveniently located just minutes from the airport. The Aloft is very modern, but the decor is dark. I saw lots of animals, so it must be a pet friendly property. I loved the soap they had in the dispenser in the bathroom and that never happens! My only complaint is that the air conditioner in the room was louder than an airplane every time it kicked on! More</t>
   </si>
   <si>
+    <t>humpriesed979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r517388627-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1157,6 +1319,9 @@
     <t>Hotel was great! Very nice I was told it was opened in February and it still had that new hotel smell lol, never stayed at a place that is two hotels in one but Troy did a great job with explaining the difference between both of them, enjoyed my conversation with him. I stayed on the aloft side and the lobby was very spacious and nice. The rooms are beautiful and the beds are comfortable. Hope to be back soon.More</t>
   </si>
   <si>
+    <t>Justin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r517238953-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1346,9 @@
     <t>I will start off by saying I don't typically write reviews but this experience has left me with a bad taste in my mouth. I have stayed at this ALoft many times over the past 4 months with no issues.I am now on my 3rd room during this stay. Neither of the first two rooms would cool below 75 with the AC set to 65. The engineering staff fixed the problem by removing the grate or louvers which in turn let the air flow straight out onto the bed. I didn't realize this night one and woke up with my nose completely stopped up with sinuses inflamed and a pounding headache. I switch rooms and the same thing happened with the AC and engineering "fix". This is when I made the final room switch....It seems like this hotel is being neglected or I just drew a couple bad straws in a row. Needless to say I will be staying elsewhere on my weekly trips to Dallas  More</t>
   </si>
   <si>
+    <t>DeeDee P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r513901897-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1205,6 +1373,9 @@
     <t>Really nice place. Convenient to downtown. Loved the room, very modern design. Really techno convenient accessories. Nice pool,workout center, bar, and food counter. Nice employees. Good price. Water conservation and trash recycling. Will stay again.More</t>
   </si>
   <si>
+    <t>tmw8318</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r511105031-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1229,6 +1400,9 @@
     <t>I am a weekly resident of the Aloft dallas love field and it's always a pleasure to stay at this hotel.  The rooms are always clean, as well as the main areas. Marcus is always at the front desk in the mornings with a great smile and an eagerness to be of assistance.  Every time I have had an issue, he has helped to resolve the problem.  When I return from work in the evenings, Troy often asks how was my day and if there is anything he can do to make my evening great.  Truly great customer service all around. The staff overall is helpful, and when I'm early enough to make breakfast, Holly always makes a great breakfast sandwich and a bag lunch for the rest of my day.. Upon departure for the week , the shuttle driver Keith is always professional and puts safety first.  Hands down, one of the nicest hotels in the Love Field area.More</t>
   </si>
   <si>
+    <t>maliahrodg089</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r511003291-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1244,6 +1418,9 @@
     <t>We stayed here last minute due to not liking another hotel close by and I must say the hotel &amp; its staff blew us away! The hotel is big &amp; spacious with a totally different hotel on the other side. Troy was extremely polite &amp; helpful and even gave us a demo of the robot butler which is a must see! The bar was great, I forgot the young ladies name but she makes great cocktails. Definitely be back!More</t>
   </si>
   <si>
+    <t>JoLyne P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r510961663-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1442,9 @@
     <t>Stayed here one night / company booked location.New hotel opened within last few months. Staff was VERY friendly and provided great surrounding area information. Airport shuttle to/from Love Field.Room was modern and comfy. Mini fridge was a bonus. Quiet room even though it faced the main street. Shower was wonderful! Shampoo and body wash dispensers on wall - fluffy towels.I did not try the bar or food options. Menu looked very simple but adequate. Shuttle would take you to other eateries close by if needed.More</t>
   </si>
   <si>
+    <t>W2574FZbethm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r510123290-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1289,6 +1469,9 @@
     <t>We felt like we had our own "tiny house" when we got to the room. Everything was so compact. The stay was very nice even though we had to pay $8 to park in their parking lot. There was no restaurant but the bar/store area was nice. I would stay again. More</t>
   </si>
   <si>
+    <t>Shane S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r509868325-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +1496,9 @@
     <t>My wife and I went on a weekend trip to Dallas. We really enjoyed the stay here. Everyone was nice and clean. Our room was just what we wanted. Check in and check out was fast. Marcus and Chi were awesome. More</t>
   </si>
   <si>
+    <t>zazbzc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r509069200-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1337,6 +1523,9 @@
     <t>NINA rocks the casbah.she and her staff did a wonderful job of taking care of me during my first stay at Element. beautiful rooms, yummy free breakfast, great shuttle driver. thanks a zillion everyonedave cookMore</t>
   </si>
   <si>
+    <t>co_bears_fan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r508846576-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1355,6 +1544,9 @@
     <t>This is a great new hotel.  I love the workout room and the location.  Stephanny at the front desk was amazing.  I had a few special requests that she went above and beyond on and took care of making sure my stay was the best it could be.  This is now my go to hotel in Dallas....mostly because of the service i received from Stephanny.  Great Job!!!More</t>
   </si>
   <si>
+    <t>stevenre1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r502384871-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1572,9 @@
   </si>
   <si>
     <t>First time staying at the Aloft Hotel after my flight was delayed and my family had to spend the night and might I say I was amazed. Everything was (new) up to date, quiet, staff was very professional, and the family loved the robot. We will be coming back next time we're in Dallas.More</t>
+  </si>
+  <si>
+    <t>709MDS</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r499926665-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1416,6 +1611,9 @@
 Since we had time we went to enjoy...We chosen this hotel due to proximity of the airport and the fact it was a newer hotel. The photos also made it seem like a fun trendy hotel. We didn't have reservations but we did see they had availability online . The location of the hotel is about a mile from the airport entrance which is a plus if you have a super early flight like we did. When we pulled up we noticed it looked like two hotels that shared the same main entrance. One was an extended stay and the left side was Aloft. When you enter the lobby of the Aloft it truly looks like a Loft apartment. Open concept, trendy. You can see the bar, they had a small food area, pool table and sitting areas. The front desk check in was great. She was very welcoming. Told us about the hotel and we met the "Botlr" . It's a robot that will bring you towels or something from the food area! So cool we couldn't wait to try that later. We stayed on the 6th floor and the halls were very trendy as well. We liked the layout of our room. We had 2 beds and loved how the sleeping area was divided with the bath area. Very clean hotel. We had a great view of the airport so we got to watch flights taking off. Since we had time we went to enjoy the pool. Stopped by the bar and that's where we met Deedra. She was awesome and helped turn our stressful travel day into a fun enjoyable evening. We had a few drinks and went to enjoy the pool. The pool area is awesome as well. Lots of seating areas and then pool chairs around the pool. We went back and ordered some chips and salsa and guacamole as a snack before we headed back to our room. Service was great! They have a food menu and the food looked great we just wanted a snack. The food was fantastic and they really catered to us. We looked at the mini store they had of food selections we could purchase and that was open 24 hours. Good to know since we had to leave at 4am.We took our room bath towels to the pool however you don't need to do that. They have pool towels at the pool for guests!! So we took that as a perfect opportunity to order more towels and have the "Botlr" bring them to us. We also asked for skittles... why not ? Later we learned that the Botlr was out of service and our items were delivered he old fashioned way.Would definitely stay at another Aloft hotel based on our experience here.More</t>
   </si>
   <si>
+    <t>dixonaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r498943203-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1437,6 +1635,9 @@
     <t>The hotel is conveniently located near Love Field but only 20 minutes from the big Dallas airport.  Nina, the manager on duty was excellent and met our every need.  The rest of the staff, Sandy, Heather, Trent, Mel, Mary, Kendra and Jane were awesome as well as your cleaning staff even though they did not speak English.  The driver on duty Saturday evening, July 2, was very informative as well as Kendra.  I have been in corporate America for over 20 years in executive positions and I know good customer service when I see it and they performed it very naturally.  I even had the opportunity on Saturday night after returning from "Social Pie Pizza Restaurant" an irate customer and the staff handled it correctly.  The woman was cursing and your staff remained calm, that's how its done.  My wife and I like the Sheraton Stonebriar in Fresno but from now on, we know our best value and comfort is at the Aloft/Element Love Field location.  This is a winning team so hold on to them and promote them as soon as possible so that all of SPG can reap these rewards from some stellar individuals.See "Yall" soonMore</t>
   </si>
   <si>
+    <t>nflmommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r498668935-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +1660,9 @@
   </si>
   <si>
     <t>Aloft is conveniently located to Dallas Love Field Airport.  We stayed here just one night as we had an early AM flight the next morning. Everything was clean and the beds were comfortable.   The mini fridge did not work but we alerted the staff member upon check out. More</t>
+  </si>
+  <si>
+    <t>aviators99</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r496515552-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1493,6 +1697,9 @@
 I'm particularly sensitive to noise, so the noise problems might not be an issue for you.  The bed was comfortable (although I...This is a fine hotel if you can sleep through various noise factors.  Staff was very friendly, although the maintenance person did not speak English and the front desk gentleman was trying to communicate my issues with him in a made-up sign language.I always put in my online reservation that I am noise sensitive.  I didn't see anything online about noise issues with the hotel.  The first thing that struck me was the fact that the A/C handler was extremely loud, depending on where you were in the room.  Its location below a faux desk makes for a "megaphone" sort of effect, and a loud, low frequency roar was unbearable to me.  Unfortunately, the "perfect" spot to be inundated with that noise was in the bed, on the side where I normally sleep.  Also, there is an "ozone" type of smell coming from the unit that is nauseating to me.I was offered a different room, which I accepted, because it was situated in reverse, so  where I would try to sleep wasn't as bad.  However, then came the loud train noises until after midnight.  It would have been nice to know about that in advance.Also, there was a pubic hair on the toilet seat and a long hair in the shower (in the 2nd room).I'm particularly sensitive to noise, so the noise problems might not be an issue for you.  The bed was comfortable (although I didn't sleep, because the A/C noise turned out to be bad enough, even with the new positioning), and as mentioned before, the staff was very nice.  The amenities are very, very basic, but I believe that's by design with Aloft.  Location is excellent if you need to be near LUV.More</t>
   </si>
   <si>
+    <t>DRWMETMAN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r496109444-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +1718,9 @@
     <t>Location = A+ (close to Love Field, close to UTSW); but, there are growing pains and pain elsewhere due to modern seating more stylish than comfortable. This hotel opened in February 2017 and is very modern with lots of glass, angular furniture and dormatory-feel rooms. One of the seating areas in the room was a bench under the television - who designed that? The lobby is sleek and sterile. The breakfast area has plastic chairs. In short, there was no place to get comfortable in this hotel!. As for growing pains - The front desk was inadequately staffed at check-in and check-out. Even though the website says 5 min from the airport (for the shuttle), it took &gt;30 min to get a ride. There is a breakfast area where one can purchase a sammich, but the options are limited and service is slow - one person is the major reason. That being said, the staff were friendly.More</t>
   </si>
   <si>
+    <t>Dee W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r492875424-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1538,6 +1748,9 @@
     <t>The rooms are minimal, however, very comfortable.  The windows provide an excellent view if you're on the Dallas downtown side.  The planes taking off are not intrusive, at all.  The self-serve breakfast was light and adequate.  Pleasant atmosphere.Great work station, if you don't mind being in an open type space with a hint of privacy/security; also not intrusive.The room could have provided at least 1 or 2 additional mirrors.  The bathroom lighting is subdued and putting makeup on was more than trying.  So, I finished the makeup job in the car mirror.  Outdoor pool and deck pleasant.More</t>
   </si>
   <si>
+    <t>dantewilliam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r488058300-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1775,9 @@
     <t>I work as a private pilot for a company, our company usually books our hotel in downtown Dallas. This time we were booked at this particular hotel because most of the rooms in downtown Dallas were booked because of the memorial days weekend. The front desk agent in this hotel were very rude and it looked like they were bored working at the hotel. Other staffs at the bars and the security were very friendly. I have requested our company to not book our stay here for the future because of the front desk agents behavior.More</t>
   </si>
   <si>
+    <t>DanaeHW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r486897266-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1581,6 +1797,9 @@
   </si>
   <si>
     <t>After staying on the Element side a few months ago, I decided to give the Aloft side a try. The two hotels are very different aesthetically but are both very beautiful. The Aloft side has more of a darker beauty and the Element side is light and airy. Both have a lot of modern features. The customer service is great no matter which side you stay on. More</t>
+  </si>
+  <si>
+    <t>Melissa B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r485945823-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1609,6 +1828,9 @@
 My only negative comment would be about the bed. It was extremely firm. I like...We mainly chose this location because of the proximity to Dallas Love Field. My friend we were visiting lived multiple hours away, and we had an early morning flight.  There is a free shuttle to the airport that runs every 30 minutes. Check-in was easy, and the staff was very attentive. As the hotel opened earlier this year, it was in pristine shape. My son enjoyed the lobby pool table, and since we didn't have anywhere to go, we played several games. We were able to use the outdoor swimming pool, which was also a blast. I was able to lounge under an umbrella, while I watched my son swim.Since we didn't have a car, we assumed we were going to eat at the bar. When we got down there, my very picky son didn't like anything on their menu; however the bartender informed us the shuttle takes you anywhere you want to go within a 3 mile radius. She made a suggestion, and we were on our way.The room was pleasant. It was a bit odd to have the mini fridge under the sink, but it didn't bother us. We had a room on the 7th floor in which we could see the Dallas skyline, an awesome view. We even watched as storms rolled by and lit up the city with lightening.My only negative comment would be about the bed. It was extremely firm. I like a firm bed (75 out of 99 on a sleep number bed), but this felt like I was sleeping on plywood. There was also a foam mattress cover that made the bed feel lumpy.  None in my party of 3 slept well.Overall, I would stay again for the airport convenience, but not for an extended stay based on the mattress being uncomfortable to us.More</t>
   </si>
   <si>
+    <t>JasonRoeber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r485912049-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1624,6 +1846,9 @@
     <t>I stayed for 3 nights and help a meeting for 20 people and the Aloft staff were awesome.  They brought in a great lunch and refreshments and bent over backwards to help us out in every way they could.It was very different from what I usually experience at most hotels where apathy is the norm.i'm going to make this my home in Dallas when I'm there, which is about twice a month.More</t>
   </si>
   <si>
+    <t>miss u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r484254921-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1648,6 +1873,9 @@
     <t>Just had to say, I really enjoyed my stay here at this hotel. We celebrated my boyfriend birthday here over the weekend stayed friday-sunday. The customer service was really nice. I want to thank Detorrian for helping me with checking in &amp; making sure we were okay. I would surely stay again and we had a blast in the pool Saturday night! I had a room on 8th floor facing pool/back side of hotel yes they have a robot butler how awesome!!!! More</t>
   </si>
   <si>
+    <t>RL H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r480043485-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1675,6 +1903,9 @@
     <t>Check in is at 3.  Arrive at 3:45 and told to wait another hour. Rooms are so so, nothing special.  Appears they spent money on looking trendy, not on providing services. For what I spent on this place, I would have expected something better.  More</t>
   </si>
   <si>
+    <t>nikkigh2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r475109304-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1693,6 +1924,9 @@
     <t>We stayed March 31, 2017 because we had an early morning flight out of Love Field.  This hotel was nice and clean and the bed and pillows were comfortable.  It is also very convenient to Love Field without the noise of the airport.More</t>
   </si>
   <si>
+    <t>Ddb2422</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r473619454-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1717,6 +1951,9 @@
     <t>The hotel is average because it is on the lower end of an SPG hotel brand. The rooms were average size, clean and modern.The refrigerator in the room smelt like the last guests dinner and when you opened it the room was filled with the smell for a long time.Parking was limited in the front of the hotel and your only choice was to park in the back that was a bit of a walk. Then you had to go back to go back to your car to put a parking pass for the hotel to avoid your car getting towed. I would stay again but nothing special.More</t>
   </si>
   <si>
+    <t>Bgomez1810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r473031942-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1744,6 +1981,9 @@
     <t>We had a nice stay.  The rooms were large very clean and with a modern feel to them.  99% of the staff was nice (except for one employee didn't even bother to get his name).Close to everything we needed to do.  Will stay again.More</t>
   </si>
   <si>
+    <t>Cindy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r470934242-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1760,6 +2000,9 @@
   </si>
   <si>
     <t>The bed was heavenly - I can't remember the last time I slept so well!  The staff is very friendly and professional.   The amenities are such a comfort - makes it feel like home but even better.  I would recommend this hotel to everyone!!!  Highly satisfied!!!More</t>
+  </si>
+  <si>
+    <t>Merrill M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r470310259-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -2285,43 +2528,47 @@
       <c r="A2" t="n">
         <v>65799</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>117785</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2341,50 +2588,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65799</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7874</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2402,56 +2653,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65799</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>117786</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2465,50 +2720,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65799</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>117787</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2522,50 +2781,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65799</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>117788</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2585,50 +2848,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65799</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>117789</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2642,50 +2909,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65799</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>117790</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
         <v>85</v>
       </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2699,50 +2970,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65799</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>117791</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2762,50 +3037,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65799</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>117792</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2819,50 +3098,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65799</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>23407</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2876,50 +3159,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65799</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>117793</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2933,50 +3220,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65799</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3734</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2990,50 +3281,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65799</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>117794</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3051,50 +3346,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65799</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>117795</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3108,50 +3407,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65799</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>47278</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3171,50 +3474,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65799</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>117796</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3228,50 +3535,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65799</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>117797</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3285,50 +3596,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65799</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>117798</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>145</v>
       </c>
-      <c r="L19" t="s">
-        <v>146</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>130</v>
-      </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3342,50 +3657,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65799</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>85191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3399,50 +3718,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65799</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>86603</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3456,50 +3779,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65799</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>117799</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3513,50 +3840,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65799</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>11367</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3570,50 +3901,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65799</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>117800</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3633,50 +3968,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65799</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>117801</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3690,50 +4029,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65799</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>117802</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3751,50 +4094,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65799</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>47058</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3812,50 +4159,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65799</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>9663</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O28" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3869,50 +4220,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65799</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>117803</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3926,50 +4281,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65799</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>117804</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3983,50 +4342,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65799</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>117805</v>
+      </c>
+      <c r="C31" t="s">
+        <v>234</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4044,50 +4407,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65799</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>117806</v>
+      </c>
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="J32" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="K32" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4101,50 +4468,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65799</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>117807</v>
+      </c>
+      <c r="C33" t="s">
+        <v>247</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4158,50 +4529,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65799</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>117808</v>
+      </c>
+      <c r="C34" t="s">
+        <v>254</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="J34" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4221,50 +4596,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65799</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>117809</v>
+      </c>
+      <c r="C35" t="s">
+        <v>261</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="J35" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4282,56 +4661,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="X35" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="Y35" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65799</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>117810</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="J36" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4343,56 +4726,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="X36" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="Y36" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65799</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>117811</v>
+      </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="J37" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4406,50 +4793,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65799</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>117812</v>
+      </c>
+      <c r="C38" t="s">
+        <v>286</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4469,50 +4860,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65799</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>117813</v>
+      </c>
+      <c r="C39" t="s">
+        <v>292</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="J39" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="K39" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4526,50 +4921,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65799</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>117814</v>
+      </c>
+      <c r="C40" t="s">
+        <v>298</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s">
+        <v>303</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>260</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" t="s">
-        <v>261</v>
-      </c>
-      <c r="J40" t="s">
-        <v>262</v>
-      </c>
-      <c r="K40" t="s">
-        <v>263</v>
-      </c>
-      <c r="L40" t="s">
-        <v>264</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>227</v>
-      </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4581,56 +4980,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="X40" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="Y40" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65799</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>117815</v>
+      </c>
+      <c r="C41" t="s">
+        <v>307</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="J41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4644,50 +5047,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65799</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>117816</v>
+      </c>
+      <c r="C42" t="s">
+        <v>314</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="J42" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4705,56 +5112,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="X42" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="Y42" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65799</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>117817</v>
+      </c>
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="J43" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="K43" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O43" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4768,50 +5179,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65799</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>117818</v>
+      </c>
+      <c r="C44" t="s">
+        <v>329</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="J44" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="K44" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4829,56 +5244,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="X44" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="Y44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65799</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>117819</v>
+      </c>
+      <c r="C45" t="s">
+        <v>339</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="J45" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4890,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="X45" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="Y45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
@@ -4909,37 +5328,37 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="J46" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="K46" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4953,50 +5372,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65799</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>117820</v>
+      </c>
+      <c r="C47" t="s">
+        <v>352</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="J47" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="K47" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="L47" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="O47" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5010,50 +5433,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65799</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>117821</v>
+      </c>
+      <c r="C48" t="s">
+        <v>358</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="J48" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="K48" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="L48" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5067,50 +5494,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65799</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>117822</v>
+      </c>
+      <c r="C49" t="s">
+        <v>366</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="K49" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="L49" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5124,50 +5555,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65799</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>32263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>372</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="J50" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="K50" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5179,56 +5614,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="X50" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="Y50" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65799</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>10129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5240,56 +5679,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="X51" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="Y51" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65799</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>117823</v>
+      </c>
+      <c r="C52" t="s">
+        <v>388</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="J52" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="K52" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5301,56 +5744,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="X52" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="Y52" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65799</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>117824</v>
+      </c>
+      <c r="C53" t="s">
+        <v>394</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="J53" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="K53" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="O53" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5362,56 +5809,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="X53" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="Y53" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65799</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>117825</v>
+      </c>
+      <c r="C54" t="s">
+        <v>403</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="J54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="O54" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5423,56 +5874,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="X54" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65799</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>31573</v>
+      </c>
+      <c r="C55" t="s">
+        <v>412</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="J55" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="K55" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5484,56 +5939,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="X55" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="Y55" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65799</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>117826</v>
+      </c>
+      <c r="C56" t="s">
+        <v>422</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="J56" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="K56" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5551,56 +6010,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="X56" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="Y56" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65799</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>2745</v>
+      </c>
+      <c r="C57" t="s">
+        <v>429</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="J57" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="K57" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="L57" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5612,56 +6075,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="X57" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="Y57" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65799</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>117827</v>
+      </c>
+      <c r="C58" t="s">
+        <v>438</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="J58" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="K58" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5673,56 +6140,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="X58" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="Y58" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65799</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>117828</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5734,56 +6205,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="X59" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="Y59" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65799</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>117829</v>
+      </c>
+      <c r="C60" t="s">
+        <v>456</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="J60" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="K60" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="L60" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -5801,56 +6276,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="X60" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="Y60" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65799</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>117830</v>
+      </c>
+      <c r="C61" t="s">
+        <v>462</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="J61" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="K61" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="L61" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5862,47 +6341,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="X61" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="Y61" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65799</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>117831</v>
+      </c>
+      <c r="C62" t="s">
+        <v>470</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="J62" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="K62" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -5919,56 +6402,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="X62" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="Y62" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65799</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>44653</v>
+      </c>
+      <c r="C63" t="s">
+        <v>479</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="J63" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="K63" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="L63" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -5980,56 +6467,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="X63" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="Y63" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>65799</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>117832</v>
+      </c>
+      <c r="C64" t="s">
+        <v>488</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="J64" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="K64" t="s">
-        <v>430</v>
+        <v>492</v>
       </c>
       <c r="L64" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6041,56 +6532,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="X64" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="Y64" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>65799</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>117833</v>
+      </c>
+      <c r="C65" t="s">
+        <v>497</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="J65" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="K65" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="L65" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -6108,56 +6603,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="X65" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="Y65" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65799</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>117834</v>
+      </c>
+      <c r="C66" t="s">
+        <v>504</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="J66" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="K66" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="L66" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="O66" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6173,47 +6672,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="X66" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="Y66" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65799</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>117835</v>
+      </c>
+      <c r="C67" t="s">
+        <v>514</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="J67" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="K67" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="L67" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -6230,56 +6733,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="X67" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="Y67" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>65799</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>117836</v>
+      </c>
+      <c r="C68" t="s">
+        <v>523</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="J68" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="K68" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="L68" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="O68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -6295,56 +6802,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="X68" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="Y68" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>65799</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>117837</v>
+      </c>
+      <c r="C69" t="s">
+        <v>531</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="J69" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="K69" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="L69" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="O69" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6356,56 +6867,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
       <c r="X69" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="Y69" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>65799</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>117838</v>
+      </c>
+      <c r="C70" t="s">
+        <v>540</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
       <c r="J70" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="K70" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="L70" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6423,56 +6938,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="X70" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="Y70" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>65799</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>80088</v>
+      </c>
+      <c r="C71" t="s">
+        <v>549</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="J71" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="K71" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="L71" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6488,56 +7007,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="X71" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="Y71" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>65799</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>91026</v>
+      </c>
+      <c r="C72" t="s">
+        <v>556</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="J72" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="K72" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="L72" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="O72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6553,56 +7076,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="X72" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="Y72" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>65799</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>117839</v>
+      </c>
+      <c r="C73" t="s">
+        <v>566</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="J73" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="K73" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="L73" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -6618,56 +7145,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="X73" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="Y73" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65799</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>117840</v>
+      </c>
+      <c r="C74" t="s">
+        <v>575</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="J74" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="K74" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="L74" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="O74" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -6679,56 +7210,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="X74" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="Y74" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>65799</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C75" t="s">
+        <v>583</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>512</v>
+        <v>585</v>
       </c>
       <c r="J75" t="s">
-        <v>513</v>
+        <v>586</v>
       </c>
       <c r="K75" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
       <c r="L75" t="s">
-        <v>515</v>
+        <v>588</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="O75" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -6740,56 +7275,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="X75" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="Y75" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>65799</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>117841</v>
+      </c>
+      <c r="C76" t="s">
+        <v>590</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="J76" t="s">
-        <v>513</v>
+        <v>586</v>
       </c>
       <c r="K76" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="L76" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="O76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -6805,56 +7344,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="X76" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="Y76" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>65799</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>64856</v>
+      </c>
+      <c r="C77" t="s">
+        <v>596</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>522</v>
+        <v>597</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="J77" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
       <c r="K77" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="L77" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="O77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -6866,56 +7409,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="X77" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="Y77" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>65799</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>117842</v>
+      </c>
+      <c r="C78" t="s">
+        <v>605</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>531</v>
+        <v>607</v>
       </c>
       <c r="J78" t="s">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="K78" t="s">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="L78" t="s">
-        <v>534</v>
+        <v>610</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>535</v>
+        <v>611</v>
       </c>
       <c r="O78" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -6927,56 +7474,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="X78" t="s">
-        <v>537</v>
+        <v>613</v>
       </c>
       <c r="Y78" t="s">
-        <v>538</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>65799</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>11835</v>
+      </c>
+      <c r="C79" t="s">
+        <v>615</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
       <c r="J79" t="s">
-        <v>541</v>
+        <v>618</v>
       </c>
       <c r="K79" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="L79" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>535</v>
+        <v>611</v>
       </c>
       <c r="O79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -6994,56 +7545,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="X79" t="s">
-        <v>537</v>
+        <v>613</v>
       </c>
       <c r="Y79" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>65799</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>1672</v>
+      </c>
+      <c r="C80" t="s">
+        <v>622</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>545</v>
+        <v>623</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="J80" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="K80" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="L80" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>535</v>
+        <v>611</v>
       </c>
       <c r="O80" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -7055,56 +7610,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="X80" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="Y80" t="s">
-        <v>552</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>65799</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>48932</v>
+      </c>
+      <c r="C81" t="s">
+        <v>631</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>553</v>
+        <v>632</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="J81" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="K81" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="L81" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
       <c r="O81" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -7122,56 +7681,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="X81" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="Y81" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>65799</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C82" t="s">
+        <v>641</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>562</v>
+        <v>642</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="J82" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="K82" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
       <c r="L82" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
       <c r="O82" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -7187,56 +7750,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="X82" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="Y82" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>65799</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>117843</v>
+      </c>
+      <c r="C83" t="s">
+        <v>648</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
       <c r="J83" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
       <c r="K83" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
       <c r="L83" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="O83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7254,13 +7821,13 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="X83" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="Y83" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_3.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="698">
   <si>
     <t>STR#</t>
   </si>
@@ -63,10 +63,10 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55711-d12246008-Reviews-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>58</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Dallas-Hotels-Aloft-Dallas-Love-Field.h17840128.Hotel-Information</t>
@@ -147,21 +147,426 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>nofatboys</t>
-  </si>
-  <si>
-    <t>05/25/2018</t>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r605745803-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>12246008</t>
+  </si>
+  <si>
+    <t>605745803</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Couldn’t Ask for More</t>
+  </si>
+  <si>
+    <t>This is the 3rd aLoft in the Dallas area I’ve stayed in and it’ll likely be the one I choose from now on.
+LOCATION
+The location of this hotel was super convenient. I was able to get to the airport in 5 mins, and to downtown Dallas at night in 10. And even though I didn’t drive, I did notice there was ample parking for all guests which is at times hard to find when in a convenient location.
+AMENITIES
+The hotel had plenty of amenities that I was able to take advantage of. The gym was clearly well taken care of. There’s new equipment, it was super clean, and actually smelled nice. There was an outdoor pool that I didn’t get to use (weather), but it had lots of seating around, and even had some cornhole boards out by it. The pool table in the lobby was a pleasant surprise and made for a nice way to spend some free time. There’s plenty of other stuff, but just know that amenity-wise, nothing was broken or unavailable during my stay. They even had a robot that delivers stuff to your room for you, which I used much too often.
+STAFF
+This is the best part. The staff was welcoming, energetic, and always willing to help. I don’t normally do favorites, but Christine was amazing. I witnessed her greet every customer with the same energy, saw her make a lady’s day...This is the 3rd aLoft in the Dallas area I’ve stayed in and it’ll likely be the one I choose from now on.LOCATIONThe location of this hotel was super convenient. I was able to get to the airport in 5 mins, and to downtown Dallas at night in 10. And even though I didn’t drive, I did notice there was ample parking for all guests which is at times hard to find when in a convenient location.AMENITIESThe hotel had plenty of amenities that I was able to take advantage of. The gym was clearly well taken care of. There’s new equipment, it was super clean, and actually smelled nice. There was an outdoor pool that I didn’t get to use (weather), but it had lots of seating around, and even had some cornhole boards out by it. The pool table in the lobby was a pleasant surprise and made for a nice way to spend some free time. There’s plenty of other stuff, but just know that amenity-wise, nothing was broken or unavailable during my stay. They even had a robot that delivers stuff to your room for you, which I used much too often.STAFFThis is the best part. The staff was welcoming, energetic, and always willing to help. I don’t normally do favorites, but Christine was amazing. I witnessed her greet every customer with the same energy, saw her make a lady’s day when she tracked down the owner of and returned a lost laptop, and even saw her sprint after the airport shuttle bus for a customer needing a ride. The other staff was great and super friendly as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This is the 3rd aLoft in the Dallas area I’ve stayed in and it’ll likely be the one I choose from now on.
+LOCATION
+The location of this hotel was super convenient. I was able to get to the airport in 5 mins, and to downtown Dallas at night in 10. And even though I didn’t drive, I did notice there was ample parking for all guests which is at times hard to find when in a convenient location.
+AMENITIES
+The hotel had plenty of amenities that I was able to take advantage of. The gym was clearly well taken care of. There’s new equipment, it was super clean, and actually smelled nice. There was an outdoor pool that I didn’t get to use (weather), but it had lots of seating around, and even had some cornhole boards out by it. The pool table in the lobby was a pleasant surprise and made for a nice way to spend some free time. There’s plenty of other stuff, but just know that amenity-wise, nothing was broken or unavailable during my stay. They even had a robot that delivers stuff to your room for you, which I used much too often.
+STAFF
+This is the best part. The staff was welcoming, energetic, and always willing to help. I don’t normally do favorites, but Christine was amazing. I witnessed her greet every customer with the same energy, saw her make a lady’s day...This is the 3rd aLoft in the Dallas area I’ve stayed in and it’ll likely be the one I choose from now on.LOCATIONThe location of this hotel was super convenient. I was able to get to the airport in 5 mins, and to downtown Dallas at night in 10. And even though I didn’t drive, I did notice there was ample parking for all guests which is at times hard to find when in a convenient location.AMENITIESThe hotel had plenty of amenities that I was able to take advantage of. The gym was clearly well taken care of. There’s new equipment, it was super clean, and actually smelled nice. There was an outdoor pool that I didn’t get to use (weather), but it had lots of seating around, and even had some cornhole boards out by it. The pool table in the lobby was a pleasant surprise and made for a nice way to spend some free time. There’s plenty of other stuff, but just know that amenity-wise, nothing was broken or unavailable during my stay. They even had a robot that delivers stuff to your room for you, which I used much too often.STAFFThis is the best part. The staff was welcoming, energetic, and always willing to help. I don’t normally do favorites, but Christine was amazing. I witnessed her greet every customer with the same energy, saw her make a lady’s day when she tracked down the owner of and returned a lost laptop, and even saw her sprint after the airport shuttle bus for a customer needing a ride. The other staff was great and super friendly as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r596697442-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596697442</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>ALO there</t>
+  </si>
+  <si>
+    <t>I will explain ALO later. Picked the hotel based on proximity to love field. The hotel has a free shuttle pick up from love field and it is a very nice van and the driver was very nice to talk with.  
+The hotel is also shared with the hotel Element on the other side.  The hotel is very modern and probably the hotel of the future. Lots of comfortable seating around the lobby and complimentary coffee in the morning.  The bar area has electrical plugs and USB ports under the bar across the bar. The staff was very pleasant and helpful. 
+I was in room 807 and everything has been thought out. There were plugs and ports on the desk and both sides of the bed. There is a safe in the room that can handle a good side laptop and easy to access.  There is a coffee maker in the room as well.  What I did not initially see was an iron and ironing board, BUT, on the other side of the bed was a area behind the headboard where they were located. 
+I came down for some coffee and the elevator stopped on floor 2.  The door opened and there was a robot, ALO.  ALO's display said it was getting the the elevator going to the lobby. It got on and we both went to the lobby.  ALO went off.  The robot delivers items to guest room.  Check...I will explain ALO later. Picked the hotel based on proximity to love field. The hotel has a free shuttle pick up from love field and it is a very nice van and the driver was very nice to talk with.  The hotel is also shared with the hotel Element on the other side.  The hotel is very modern and probably the hotel of the future. Lots of comfortable seating around the lobby and complimentary coffee in the morning.  The bar area has electrical plugs and USB ports under the bar across the bar. The staff was very pleasant and helpful. I was in room 807 and everything has been thought out. There were plugs and ports on the desk and both sides of the bed. There is a safe in the room that can handle a good side laptop and easy to access.  There is a coffee maker in the room as well.  What I did not initially see was an iron and ironing board, BUT, on the other side of the bed was a area behind the headboard where they were located. I came down for some coffee and the elevator stopped on floor 2.  The door opened and there was a robot, ALO.  ALO's display said it was getting the the elevator going to the lobby. It got on and we both went to the lobby.  ALO went off.  The robot delivers items to guest room.  Check out YouTube.This is a great hotel and already rethink my hotel in Florida.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I will explain ALO later. Picked the hotel based on proximity to love field. The hotel has a free shuttle pick up from love field and it is a very nice van and the driver was very nice to talk with.  
+The hotel is also shared with the hotel Element on the other side.  The hotel is very modern and probably the hotel of the future. Lots of comfortable seating around the lobby and complimentary coffee in the morning.  The bar area has electrical plugs and USB ports under the bar across the bar. The staff was very pleasant and helpful. 
+I was in room 807 and everything has been thought out. There were plugs and ports on the desk and both sides of the bed. There is a safe in the room that can handle a good side laptop and easy to access.  There is a coffee maker in the room as well.  What I did not initially see was an iron and ironing board, BUT, on the other side of the bed was a area behind the headboard where they were located. 
+I came down for some coffee and the elevator stopped on floor 2.  The door opened and there was a robot, ALO.  ALO's display said it was getting the the elevator going to the lobby. It got on and we both went to the lobby.  ALO went off.  The robot delivers items to guest room.  Check...I will explain ALO later. Picked the hotel based on proximity to love field. The hotel has a free shuttle pick up from love field and it is a very nice van and the driver was very nice to talk with.  The hotel is also shared with the hotel Element on the other side.  The hotel is very modern and probably the hotel of the future. Lots of comfortable seating around the lobby and complimentary coffee in the morning.  The bar area has electrical plugs and USB ports under the bar across the bar. The staff was very pleasant and helpful. I was in room 807 and everything has been thought out. There were plugs and ports on the desk and both sides of the bed. There is a safe in the room that can handle a good side laptop and easy to access.  There is a coffee maker in the room as well.  What I did not initially see was an iron and ironing board, BUT, on the other side of the bed was a area behind the headboard where they were located. I came down for some coffee and the elevator stopped on floor 2.  The door opened and there was a robot, ALO.  ALO's display said it was getting the the elevator going to the lobby. It got on and we both went to the lobby.  ALO went off.  The robot delivers items to guest room.  Check out YouTube.This is a great hotel and already rethink my hotel in Florida.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r605363433-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>605363433</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>A Wonderful Surprise</t>
+  </si>
+  <si>
+    <t>Spent a night because of an early morning flight from Love Field and was pleasantly surprised by the accommodations. A modern lobby with an array of facilities I wasn't expecting--a fairly large workout room with TV's, pool table, nice bar and an outdoor pool.It was a lot different than other aloft's I've been to. The room was very well appointed and the bed was very comfortable. There were also a significant number of outlets with usb connections.  Staff was very friendly and professional.A place I will return to when the need arises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r605160869-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>605160869</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Customer services</t>
+  </si>
+  <si>
+    <t>Had drinks at the bar alone and encountered 3 awesome employees! Marcus, Darrious and Jayson the cook were all very friendly and welcoming! Made me feel extremely comfortable. They were so entertaining and hospitable! I couldn’t ask for better hosts! Marcus &amp; Darrious made the best drinks and Jayson cooked the hell out of that grilled chicken sandwich! I will definitely be returning soon! I can’t wait to taste his guacamole on my next visit! Greatest service I’ve had in a while! Oh and they were very handsome also and smelled great!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r605159632-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>605159632</t>
+  </si>
+  <si>
+    <t>Great Service, Conversation &amp; Food</t>
+  </si>
+  <si>
+    <t>Great service at the bar with Darius and Marcus at the bar. Great drinks and great conversation. Darius and Marcus were very friendly and personable; helpful and quick with bar service. Food was excellent as prepared by Jayson Collins! Jayson was excellent! He explained the food options and catered it especially to our needs. He came out to check to ensure that everything was prepared to our liking and was an awesome host! Will definitely return!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r603803452-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>603803452</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Very convenient for lovef field Dallas  for worker vacation  ,restaurant bar pool workout room breakfast then a bike ride and laundry ..perfect! clean room very cool set for long or short stay.The staff was great help from the front desk to the cleaning crew to guys that drive the van to the cooks to the guy that cleans the pool all very helpful!Thanks Victor Christine Jason Erika Tamerlane prisicillia greg viantley daris Brittany kazhimere stephanny Great people!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r598301368-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>598301368</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Great food and atmosphere</t>
+  </si>
+  <si>
+    <t>Jason Collins cooked up some tasty pork mac and cheese and bacon fries. Be sure to stop by the bar for great drink and food service. Whether you are staying in the aloft or adjoining element, make it a point to visit the WXYZ bar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r597491037-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597491037</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Great rooms, friendly staff!</t>
+  </si>
+  <si>
+    <t>Ultra modern, awesome rooms!  Darius at the bar took great care of me and everyone at the bar!  5 stars will stay again, best hotel by Love field!  Try the breakfast w the poached egg, brown rice, quinoa, and goat cheese!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r597457637-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597457637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding hotel!  </t>
+  </si>
+  <si>
+    <t>I came hear because my granddaughter is in the Hospital at Children’s Medical.   Feeling overwhelmed, exhausted and sad The Aloft Team made me feel at home.  MGR. Christine visited with me on a personal caring level!  The Rooms were spotless, beds were comfortable with feather pillows .  The pool was clean along with side towels. The Bar has food and drinks with a up town urban feel.  You will not be disappointed with your stay here! I will stay here many more times.  You will receive everything you are looking for and above with Aloft Love Field.  Thank you Team Aloft and Christine your hospitality genuinely makes your property above all in the area!  MoreShow less</t>
+  </si>
+  <si>
+    <t>I came hear because my granddaughter is in the Hospital at Children’s Medical.   Feeling overwhelmed, exhausted and sad The Aloft Team made me feel at home.  MGR. Christine visited with me on a personal caring level!  The Rooms were spotless, beds were comfortable with feather pillows .  The pool was clean along with side towels. The Bar has food and drinks with a up town urban feel.  You will not be disappointed with your stay here! I will stay here many more times.  You will receive everything you are looking for and above with Aloft Love Field.  Thank you Team Aloft and Christine your hospitality genuinely makes your property above all in the area!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r596563926-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596563926</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Amazeballs</t>
+  </si>
+  <si>
+    <t>Brittany, Christine, and Troy were awesome!! Highly recommend!! Brand new with amazing amenities, everyone should check this place out! Fantastic vicinity to DAL, great food and drinks. Very clean rooms and great service!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r596497333-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596497333</t>
+  </si>
+  <si>
+    <t>Aloft and Bar.</t>
+  </si>
+  <si>
+    <t>The front desk staff was kind and curtious throughout the stay.  Checkin was a breeze! Brittany the bar manager was amazing.  The service and conversation was excellent and made our night.  The drinks were on point after a long day at work.  Will be looking forward to our next stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r596496071-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596496071</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>If you’re staying here, make sure you stop to see Brittany at the bar! She made our stay much more fun and was a great bartender. I’d highly recommend anyone in the Dallas Love area stay at this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r596495991-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596495991</t>
+  </si>
+  <si>
+    <t>Only because of the bar!</t>
+  </si>
+  <si>
+    <t>Brittany took very good care of us. We got in a bit late and came down for libation. We were great with a very spunky barkeep! Not only did she keep our drinks filled, but had great suggestions. This is the kind of employee that all hospitality based brands love to have. Because of her personality we will be returning when in Dallas!Thank you SPG/A Loft for employing such a great person!-Cort</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r596235244-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596235244</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Brittany is amazing</t>
+  </si>
+  <si>
+    <t>Brittany was an amazing bartender and took care of all of us with perfection. She reccomeded Korean bbq wings, and the chef took care of us as well. She reccomded many drinks to us and made sure we enjoyed them, definitely a great bartender. Kyron took care of us as well. The whole staff was amazing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r595113187-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>595113187</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Aloft astonishing stay of disapppointment</t>
+  </si>
+  <si>
+    <t>I was there because I wanted to try this location for a special experience. Well it was not the treatment I expected and was really shocked at the total experience. I found the whole experience as not welcoming by any means. I wanted to at least be greeted and acknowledged when I checked in. But the front desk person was very distant and not even giving me a direction check in. I am with a International company and planned on booking this property every time but I have changed my mind. I will go back to the less of property and receive a "warm welcome".  I plan to take my company and events elsewhere. I have stayed in many Aloft properties and this was I was non existent and the AC flooded the hallway when I was leaving and my luggage was getting wet. I told them and he said that was not that bad. Front desk retrain 101 he needs..caio...my businessMoreShow less</t>
+  </si>
+  <si>
+    <t>I was there because I wanted to try this location for a special experience. Well it was not the treatment I expected and was really shocked at the total experience. I found the whole experience as not welcoming by any means. I wanted to at least be greeted and acknowledged when I checked in. But the front desk person was very distant and not even giving me a direction check in. I am with a International company and planned on booking this property every time but I have changed my mind. I will go back to the less of property and receive a "warm welcome".  I plan to take my company and events elsewhere. I have stayed in many Aloft properties and this was I was non existent and the AC flooded the hallway when I was leaving and my luggage was getting wet. I told them and he said that was not that bad. Front desk retrain 101 he needs..caio...my businessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r593197783-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>593197783</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Southern Hospitality.</t>
+  </si>
+  <si>
+    <t>Overnight stay for company business.  Professional desk and kitchen staff.Dinner delivered quickly with pleasant, southern hospitality. Chef Jayson Collins delivered a grand slam! Hats off to the entire hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r593147832-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>593147832</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Best Bang for your Buck</t>
+  </si>
+  <si>
+    <t>This place is clean, nice, and near Love Field.  There is a bar downstairs but remains quiet upstairs.  Minimalist feel, but still have a standard amenities like large TV and refrigerator.  Shower is modern and everything has a contemporary, clean feel.  Nice rate, too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r592713920-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>592713920</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Nice comfortable Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for the weekend 6/30 &amp; 7/1 and it was clean and comfortable. I got the king size room so nothing fancy but quite and cozy. You can regulate your room temperature which is a big thing for me. The Shower and bathroom was cleaned. No issues with anything. Bar is really nice but pricey,  $5 for one beer but I guess happy hour is cheaper IDK. Cleanliness is a big thing with me so I felt comfortable and at home. I would say that check-in and check-out process takes a little longer than expected. I don’t know if it’s their system or front desk staff just trying to figure it out  but a quicker process would be much appreciated.  I will be staying here again when I’m back in Dallas. Thank You! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for the weekend 6/30 &amp; 7/1 and it was clean and comfortable. I got the king size room so nothing fancy but quite and cozy. You can regulate your room temperature which is a big thing for me. The Shower and bathroom was cleaned. No issues with anything. Bar is really nice but pricey,  $5 for one beer but I guess happy hour is cheaper IDK. Cleanliness is a big thing with me so I felt comfortable and at home. I would say that check-in and check-out process takes a little longer than expected. I don’t know if it’s their system or front desk staff just trying to figure it out  but a quicker process would be much appreciated.  I will be staying here again when I’m back in Dallas. Thank You! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r588694943-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588694943</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Aconmodated better than expected.</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here with some friends on our way to Vegas. It it really post-modern, so prepare yourself for that. Lots of exposed concrete, plumbing, and metal. There also seemed to be a party vibe to the lounge. It’s technically a bar, so I can understand why. We had a fold out couch and a bed that 4 adults shared. We made do...it was what it was. We did finally receive the extra pillows and blanket that we requested 45 minutes later than we were promised. Oh well, we were expecting worse! Nice shower and bathroom, and the airport shuttle was quite clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r588478837-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588478837</t>
+  </si>
+  <si>
+    <t>Awesome staff, awesome stay</t>
+  </si>
+  <si>
+    <t>My fiance and I came here after my birthday party to celebrate her proposal. Everything about the hotel was beautiful. When they learned of our new engagement, they left a card congratulating us with credit for the bar. When we checked out, AD and his co-worker were so nice and congratulated us again on our engagement. They went above and beyond for us, their guests, to make sure we had a great experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r585114461-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>585114461</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Pleasant surprise!</t>
+  </si>
+  <si>
+    <t>I quickly reserved this hotel on a turnaround visit to Dallas and had never stayed at one of it's other hotels.  I was very pleasantly surprised.  If you are flying in/out of Love Field, I highly recommend this hotel.  The room was on the top floor and very quiet.  Modern decoration, although not my personal preference, was tastefully done.  There were plenty of things to keep the younger set busy in the lobby area.  The king bed was very comfortable and the bathroom was fantastic with a large walk-in shower.  The hotel itself is about 1-2 miles from the airport which was a huge plus because we had an early flight and we did not have to fight the traffic at DFW.  We will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I quickly reserved this hotel on a turnaround visit to Dallas and had never stayed at one of it's other hotels.  I was very pleasantly surprised.  If you are flying in/out of Love Field, I highly recommend this hotel.  The room was on the top floor and very quiet.  Modern decoration, although not my personal preference, was tastefully done.  There were plenty of things to keep the younger set busy in the lobby area.  The king bed was very comfortable and the bathroom was fantastic with a large walk-in shower.  The hotel itself is about 1-2 miles from the airport which was a huge plus because we had an early flight and we did not have to fight the traffic at DFW.  We will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r584614459-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584614459</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Great service at the bar!</t>
+  </si>
+  <si>
+    <t>I stayed at the aloft for two nights and the hotel is very nice! I went to the bar both nights and I loved the service from Darius! He’s awesome! His drinks taste so good and he’s very friendly. He is a joy to be around and great at what he does! Loved it!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r584009133-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584009133</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Quick fix</t>
+  </si>
+  <si>
+    <t>Had a problem with my a/c and called down to the front desk where Troy took care of the situation. He was very nice, he immediately apologized, sent someone up to look at it and asked did I want a snack or anything for the inconvenience. Appreciate it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r583750342-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>583750342</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible customer service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you ever needs the free shuttle service - don’t bother. They promised the shuttle will arrive and kept me wait for one hour on freezing. Didn’t even apologized when I told the check in agent. Really disappointed because the rest of the things were really great on this hotel. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r582180099-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>12246008</t>
-  </si>
-  <si>
     <t>582180099</t>
   </si>
   <si>
@@ -174,48 +579,6 @@
     <t>This is my third stay here but my last. Down to one elevator working.  Now charges for parking.  Selection of snacks (no room service) has been significantly restricted. The "luggage" carts are like the small stand up carts at the grocery store and not really the best.  Air conditioning had to be set at 65 degrees to have a chance of the room even getting comfortable.  This is a great location so really sorry to see this hotel become subpar</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Jennifer H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r549472708-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>549472708</t>
-  </si>
-  <si>
-    <t>12/27/2017</t>
-  </si>
-  <si>
-    <t>Comfortable one night stay</t>
-  </si>
-  <si>
-    <t>Stayed here one night before a flight from Love Field. Room was very comfortable and sported a loft feeling. The room felt open and normal clutter was tucked away. Bathroom had the toilet and shower with the sink in a separate area. Surprisingly, it was very quiet for being so close to the airport. I don't remember hearing any noise from planes from check in to check out. The guy at the front desk was very friendly and asked our preference of a room (elevator proximity, floor level). He also introduced us to the robot butler who will bring you whatever you need - cool feature, too bad we didn't get a chance to use it. Hotel was easy to find, but beware the Dallas traffic can get backed up around dinner time.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Nina T, Front Office Manager at Aloft Dallas Love Field, responded to this reviewResponded January 13, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 13, 2018</t>
-  </si>
-  <si>
-    <t>Stayed here one night before a flight from Love Field. Room was very comfortable and sported a loft feeling. The room felt open and normal clutter was tucked away. Bathroom had the toilet and shower with the sink in a separate area. Surprisingly, it was very quiet for being so close to the airport. I don't remember hearing any noise from planes from check in to check out. The guy at the front desk was very friendly and asked our preference of a room (elevator proximity, floor level). He also introduced us to the robot butler who will bring you whatever you need - cool feature, too bad we didn't get a chance to use it. Hotel was easy to find, but beware the Dallas traffic can get backed up around dinner time.More</t>
-  </si>
-  <si>
-    <t>shawnewesrghv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r581122621-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,9 +594,6 @@
     <t>Had a long day, flight delays, lost some of my luggage so when I got to the hotel all I wanted to do is grab a cold one and relax. I got to the hotel 10 min before midnight and was informed that the bar did last call but luckily Troy at the front desk walked over to Darius the bartender to see if get a beer before he shut down and he took care of me. Was well needed so appreciate it fellas!</t>
   </si>
   <si>
-    <t>jumbotron867</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r581002927-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,9 +606,6 @@
     <t>Had a lovely experience checking in with Cashmere. She gave me great detail about the hotel. Very nice hotel and very cool that’s it two &amp; one. The whole staff was great, had an one issue with my bill at check out but Troy took care of that for me.</t>
   </si>
   <si>
-    <t>OMGYoga</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r579756273-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -264,9 +621,6 @@
     <t>The Aloft staff is exceptional!  The only reason they score 4 out of 5 is because their shuttle is only available until 11pm and the hotel is so close to DFW/Love Field that Lyft and cab drivers dread the idea of taking you only 1.4 miles from airport curbside.  Plus, when we finally got to our room after a flight delay, the toilet had been disconnected.  Upside, after a 1:11 am call to the front desk, a maintenance guy was there within minutes to fix the plumbing snafu.  Everything else was exceptional,  location, price, convenience store and decor.  We LOVE The Aloft at LOVE!  Thanks for everything.</t>
   </si>
   <si>
-    <t>dragonchamp85j</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r578155421-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -285,12 +639,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>kevinyewlee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r578137814-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,12 +651,6 @@
     <t>Recently stayed at the aloft and the staff was amazing. Kyron &amp; Troy was very friendly and helpful. The hotel itself is beautiful my favorite part was the pool. And the outside patio. Definitely be back.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>bigkel74767</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r577799695-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,9 +666,6 @@
     <t>Great hotel and the staff is wonderful the shuttle drivers are top notch ! Same with the front desk  they are really helpful and curtious . As far as I'm concerned I don't think I will be staying anywhere else !</t>
   </si>
   <si>
-    <t>Nik3300</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r574651767-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,15 +681,9 @@
     <t>This is the 2nd time we have stayed here. Last time we stayed, the AC never came on. But, we only stayed for one night and just let it go. This time, we come in after a long volleyball tournament. We walked into the room,  it’s hot, so we turn the thermostat down to 65 degrees, AC never comes on. We tried auto, then just the just the fan, nothing. Called front desk and they did send someone and it came on for about 10 minutes and now it’s off again. There’s now way that it’s at the targeted temperature on the display. While the maintenance man was here looking at it he said that they’ve had issues with the wire and they are being replaced. But if we had anymore issues to let them and he would do what he did again. I asked for him to show me what he did so we could get the AC on but he said he would have to do it.We have to be at the convention center at 7:00 a.m. and it’s too late to have him tinker with it again. Had my husband to go buy a fan. #nothinhgworsethantryingtosleepwithnoaircondititnor.1st time a fluke, 2nd time is a problem. Won’t be back unless something drastically changes. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This is the 2nd time we have stayed here. Last time we stayed, the AC never came on. But, we only stayed for one night and just let it go. This time, we come in after a long volleyball tournament. We walked into the room,  it’s hot, so we turn the thermostat down to 65 degrees, AC never comes on. We tried auto, then just the just the fan, nothing. Called front desk and they did send someone and it came on for about 10 minutes and now it’s off again. There’s now way that it’s at the targeted temperature on the display. While the maintenance man was here looking at it he said that they’ve had issues with the wire and they are being replaced. But if we had anymore issues to let them and he would do what he did again. I asked for him to show me what he did so we could get the AC on but he said he would have to do it.We have to be at the convention center at 7:00 a.m. and it’s too late to have him tinker with it again. Had my husband to go buy a fan. #nothinhgworsethantryingtosleepwithnoaircondititnor.1st time a fluke, 2nd time is a problem. Won’t be back unless something drastically changes. More</t>
   </si>
   <si>
-    <t>Jose L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r574256881-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -366,9 +699,6 @@
     <t>Your bar tender Brittany was amazing! We had the best time with her! She was very friendly and hospitable! She made some great suggestions for dinner and was very knowledgeable on all types of drinks. She’s awesome!</t>
   </si>
   <si>
-    <t>Samanthasosassy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r574210805-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -381,9 +711,6 @@
     <t>I have never had a poor experience with this Aloft. The rooms are clean, smell great, modern and I personally love the glass showers! What a heavenly bed! I can sleep in the Aloft bed all day! I love this hotel. Hands down great service. The Aloft offers cute carts to help you bring items to and from your room and this robot type device that assists with your needs (modern). I will always visit this particular hotel when im visiting Dallas.</t>
   </si>
   <si>
-    <t>Brittany S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r572628633-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,9 +726,6 @@
     <t xml:space="preserve">Very clean, fun hotel with great customer service! Shout out to Brad who gave me a complimentary upgrade and brought the bag I left in the hotel over the weekend to my room before I even checked in.The hotel is very close to dallas love airport but easy to get to from DFW. The Aloft has a bar and is attached to another hotel The Element. I’ve also stayed at the Element and if you’re deciding between the two, the difference is that The Element has kitchens (without ovens though). I’d stay at both the Element and Aloft again! </t>
   </si>
   <si>
-    <t>DJinTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571792040-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -420,9 +744,6 @@
     <t>I stayed here for two nights while in town for an interview.  The Aloft hotel has a really cool, hip vibe.  I enjoyed my stay.  The front desk clerk was very friendly and very helpful.  They have free coffee available for guests in the morning.  The gym was large (for a hotel gym) and clean.  The bed was very comfortable, and the TV was very large.  Even though the hotel is near Love Field I didn't hear any planes at all.  There was a small fridge in the room, but no microwave.  My one suggestion for improvement would be to add a microwave to the guestrooms.  I highly recommend this hotel!More</t>
   </si>
   <si>
-    <t>joannahkimms</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571754345-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -435,9 +756,6 @@
     <t>This hotel is awesome! Everybody is soooo friendly and nice. Jose was helpful, Brad goes out of his way, Troy was nice and helpful with his bright smile! The bartender I forgot her name but took good care of else and makes awesome drinks! Even tho it was short we enjoyed every second of our stay!!</t>
   </si>
   <si>
-    <t>Clinton S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571450159-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -453,15 +771,9 @@
     <t>I was in Dallas for a night or two and Aloft Dallas looked like a good option.  I had stayed at an Aloft in LA a couple of times and it was a good experience.  Check in was fast and the staff friendly and helpful.  I asked for a room not too high and close to the elevator as it was only for a night.  I woke in the morning, made a latte downstairs and left.  As it turned out I finished early but was unable to change my flight so I booked another night.  It was more expensive due to supply, but still reasonable. I returned my rent a car the night prior so that I could just take the shuttle in the morning. It was all a painless experience. I would recommend this hotel and Aloft as a brand. My recommendations to Aloft, I would like another light in the hotel room, it seemed to be missing a light at the foot of the bed, perhaps centered where the bench, luggage rack sits.  I also use ironing boards and the short little ones are not acceptable in my opinion.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>I was in Dallas for a night or two and Aloft Dallas looked like a good option.  I had stayed at an Aloft in LA a couple of times and it was a good experience.  Check in was fast and the staff friendly and helpful.  I asked for a room not too high and close to the elevator as it was only for a night.  I woke in the morning, made a latte downstairs and left.  As it turned out I finished early but was unable to change my flight so I booked another night.  It was more expensive due to supply, but still reasonable. I returned my rent a car the night prior so that I could just take the shuttle in the morning. It was all a painless experience. I would recommend this hotel and Aloft as a brand. My recommendations to Aloft, I would like another light in the hotel room, it seemed to be missing a light at the foot of the bed, perhaps centered where the bench, luggage rack sits.  I also use ironing boards and the short little ones are not acceptable in my opinion.More</t>
   </si>
   <si>
-    <t>Anna21482018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571132470-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,9 +792,6 @@
     <t>I was here on a very long overnight for work and the staff was very helpful in making me feel at home on my stay. Kyron was the first face I saw and was a great welcoming to the Aloft. He answered all my questions and was very friendly. I received a drink coupon for the live music and Brittany was a great bartender. She’s personable and great at what she does. Priscilla helped out with the menu and suggestions and brought out my food that was delicious. Amber has a great team and I was very happy to have made friends out of your staff! Thank you for having such a great team at this Aloft!! I would be very happy if my work put me here again!More</t>
   </si>
   <si>
-    <t>sallyjames77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r571094643-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,9 +804,6 @@
     <t>Recently stayed here and have to say what a fabulous hotel!!!! Troy at check in took good care of me!!! I was upset that the bar was close and he offered me a snack from the pantry area. The beds are really comfortable and the scent of the hotel is amazing!! Will be back!</t>
   </si>
   <si>
-    <t>austinx80</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r569982391-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -511,9 +817,6 @@
   </si>
   <si>
     <t>I love the upgrade at this hotel it's fun and comtable and the staff is great. Thanks u so much KAZ for your great service and help with checking us in and free 2 drinkssouthwest loves u. Great place and loving staff</t>
-  </si>
-  <si>
-    <t>ddmullis</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r569512995-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -540,9 +843,6 @@
 Overall, I was NOT impressed...Disappointment is the first word that comes to mind when I reflect on my recent stay at the Aloft hotel at Dallas Love Field.  The hotel is new, a beautiful public area including the pool and even the rooms.  The disappointment comes once you start interacting with most of the staff at this hotel and realize they don’t have a clue about how to take care of their guests and in particular their elite guest. Upon check-in, I was not offered any upgrade with my platinum status NOR was it even recognized.  I was given a decent room but overall very small with no chair or couch to lounge in during my stay.  I had to go back and request my complimentary breakfast which turned out to be a complete joke when you realize they are charging $8 for half scoop of hashbrowns, some fake cheese, and few bacon crumbles.  The food prices for what you get are completely crazy in a bad way.  To avoid getting my rental car towed, I had to go back to the front desk and request a parking pass, of course, they charge $8 per night extra and I never once saw any security managing the lot.  If you return later evening, you park in the far rear of the hotel but have to walk all the way back around to the main front entrance to get back inside. Overall, I was NOT impressed with this hotel OR staff during my recent stay.   More</t>
   </si>
   <si>
-    <t>Maureen H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r569399248-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -558,9 +858,6 @@
     <t>First off Ad and KY wow how exceptional these young men are. I have never had so much fun checking in and socializing in a hotel ever in my life.Not to mention Brittany in the Bar, great customer service and wow . That girl can make  and Old Fashioned and she makes it funThis hotel is so awesome from every angle !! Stay here, it will not disappoint!!</t>
   </si>
   <si>
-    <t>barbaraminos374</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r568635614-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -576,9 +873,6 @@
     <t>Was running late for the shuttle, it runs every half an hour and I literally got to the desk at 6:33am. Fortunately though Troy was nice enough to see if the shuttle driver could turn around because I was in a hurry and couldn't wait another half an hour. The shuttle did come back and Cam the shuttle driver was able to get me to my destination on time. I really appreciate them going the extra mile.</t>
   </si>
   <si>
-    <t>Kimberly H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r568127390-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -594,9 +888,6 @@
     <t xml:space="preserve">The staff was so friendly. Jose and Josh at the front desk made it feel like I was family. I've NEVER experienced this in all my stays at a hotel. The shuttle drivers were informative when it came to recommendations on where to go eat. It was well lit, which made me feel safe. It was very modern and had such a cool vibe to it. I'll definitely be back! </t>
   </si>
   <si>
-    <t>Jeanna T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r567905173-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -612,9 +903,6 @@
     <t>I flew in for an interview the day before and there seemed to be a lot of people checking in at that time. They were extremely busy and Allen so graciously took me to the element side and ALLEN MADE SURE Everything WAS PERFECT! Unfortunately I split my pants on my way to the hotel and CURTIS the hotel van driver took me to Target and picked me up! The customers service was above and beyond! I will definitely stay again, room was great also!  Couldn't have asked for a better experience! Thanks guys!</t>
   </si>
   <si>
-    <t>foxylov</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r567341396-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -633,9 +921,6 @@
     <t>I'm so glad I booked this hotel. My first experience was with the complimentary shuttle service from Dallas Love Field. Loved it. I believe it picks up every 30 minutes or so. The driver was courteous and professional. The airport is less than two miles away from the hotel. Can we say convenient.  Pulling up to the hotel you'll see construction taking place around the hotel. This in no way impedes on guests coming or going. The hotel grounds and exterior are nice. Elements and Aloft are in the same building . Aloft takes over the left side while Elements occupies the right. A nice lounge awaits you on either side. Comfy places to sit, a fireplace, a long with a tv fit perfectly. The grab in go cafe, a pool table, bar/ restaurant are located in the lounge as well. The Kaz greeted me with exceptional customer service. She answered all my questions about the rooms at Aloft. My room was on the third floor. I opened the door and fell in love. The hotel has a modern feel. No bathtub not a problem because the shower was great. The king size bed was super duper comfy. All in all I liked my room. No complaints. The hotel(s) manager is Adrian. He's both kind, and courteous. Kyron is the young man at the guest reception desk. Nice as he can be. He answered questions I had about the hotel...I'm so glad I booked this hotel. My first experience was with the complimentary shuttle service from Dallas Love Field. Loved it. I believe it picks up every 30 minutes or so. The driver was courteous and professional. The airport is less than two miles away from the hotel. Can we say convenient.  Pulling up to the hotel you'll see construction taking place around the hotel. This in no way impedes on guests coming or going. The hotel grounds and exterior are nice. Elements and Aloft are in the same building . Aloft takes over the left side while Elements occupies the right. A nice lounge awaits you on either side. Comfy places to sit, a fireplace, a long with a tv fit perfectly. The grab in go cafe, a pool table, bar/ restaurant are located in the lounge as well. The Kaz greeted me with exceptional customer service. She answered all my questions about the rooms at Aloft. My room was on the third floor. I opened the door and fell in love. The hotel has a modern feel. No bathtub not a problem because the shower was great. The king size bed was super duper comfy. All in all I liked my room. No complaints. The hotel(s) manager is Adrian. He's both kind, and courteous. Kyron is the young man at the guest reception desk. Nice as he can be. He answered questions I had about the hotel and the surrounding area. Dedra's the nice lady at the bar. She took my order and offered a suggestion from the menu. Thanks Dedra! I strongly recommend this hotel. Thank you Adrian, Kyron, Kaz, and Dedra!!More</t>
   </si>
   <si>
-    <t>texasmom79121</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r567328784-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -651,9 +936,6 @@
     <t>We often need to stay by Love Field airport to catch early flights back home.  So, when we finally had the chance to stay at the Aloft, I jumped on the chance.  I booked my reservation 60 days before my one night stay.  We are a family of 4 and needed a room with 2 queen beds.  (We always stay at the Doubletree but was excited to try something new.)   When I made my reservation, I made a special request to notify them that we would not be getting until 11:00 pm.  My reservation was confirmed and did not expect anything to go wrong.  Well, I call at 11:00 asking about a shuttle and they call the shuttle driver and tell him to wait for us.  We get out there at 11:15 and wait until 11:30.  No shuttle.  I called the hotel again and they said it was done for the night.  (To their credit, the website does say it shuts down at 11:00, but my husband said they were still driving people around when he went down to lobby at 12:30.)   So, we take Lyft.   When we get there to check in, the front desk guy tells me that they are unfortunately sold out of the rooms with queen beds and only has rooms with king beds.  He says that Expedia overbooked their rooms.   He then calls the downtown hotel to check for availability.  (Who wants to stay there...We often need to stay by Love Field airport to catch early flights back home.  So, when we finally had the chance to stay at the Aloft, I jumped on the chance.  I booked my reservation 60 days before my one night stay.  We are a family of 4 and needed a room with 2 queen beds.  (We always stay at the Doubletree but was excited to try something new.)   When I made my reservation, I made a special request to notify them that we would not be getting until 11:00 pm.  My reservation was confirmed and did not expect anything to go wrong.  Well, I call at 11:00 asking about a shuttle and they call the shuttle driver and tell him to wait for us.  We get out there at 11:15 and wait until 11:30.  No shuttle.  I called the hotel again and they said it was done for the night.  (To their credit, the website does say it shuts down at 11:00, but my husband said they were still driving people around when he went down to lobby at 12:30.)   So, we take Lyft.   When we get there to check in, the front desk guy tells me that they are unfortunately sold out of the rooms with queen beds and only has rooms with king beds.  He says that Expedia overbooked their rooms.   He then calls the downtown hotel to check for availability.  (Who wants to stay there when leaving the next morning really early????  It is now midnight!)   I then ask for 2 rooms with king beds to accommodate my family.  I did not book through Expedia.  I am an SPG member and booked through their site!  Shouldn't I be given some priority?    The front desk guy tries to charge me full price for 2 rooms.  I told him that was not fair and he gave me 1/2 off on the second room.  This was still not fair.  They should have given me the second room.  This was their fault.     Do they do this to all travelers?   They know you are tired and just want a place to sleep.  I wonder if this is their scam to get more money from people.I had a choice when I booked this room 60 days before my night stay.   I will not choose Aloft again.   If others have had a similar experience, this needs to be explored ...More</t>
   </si>
   <si>
-    <t>Michel M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r567058527-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -669,9 +951,6 @@
     <t>Brittany, Darius &amp; Edward provided exceptional service, even with me being picky about my food they made sure I received great service. I enjoyed every night I spent at the hotel, despite my long working days. I must also say Curtis (shuttle guy) also checked it with us to make sure we had lunch and if not offered to take us to a near by restaurant. My colleague &amp; I were both very thankful for Curtis because we really didn't have time to eat &amp; with his help it made our work day easier. Great service from the Aloft Team ! Will definitely be back for a stay!</t>
   </si>
   <si>
-    <t>Tanya B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r566769035-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -687,9 +966,6 @@
     <t>Darius has been the best and most amazing bartender that I’ve had in a very long long time. His drinks and personality is off the charts and he’s been the best sport about all of our crazy jokes and stories</t>
   </si>
   <si>
-    <t>Jack E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r563694178-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -705,9 +981,6 @@
     <t>Quiet, clean and nicely detailed hotel. Close and convenient to airport. Make sure to chat with DT at breakfast...he’s a huge Dallas Cowboy fan. Friendliness like that in the morning is just as good as a cup of coffee.</t>
   </si>
   <si>
-    <t>kaylapiercemck11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r562626511-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -726,9 +999,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Tonia L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r561800205-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -747,9 +1017,6 @@
     <t>My husband and I spent two nights at the Aloft Love Field this past weekend. We actually had reservations at another hotel in Dallas, but were dismayed upon check-in with the condition of the property. So we left and found the Aloft on a whim. We were very glad that we did! The hotel is in a convenient location with plenty of lighting so we felt safe walking to and from the parking lot. The Aloft is pet friendly which is important to us. The vibe in this hotel is so cool! There is plenty of space in the lounge area to just sit and mingle. I believe there is also a pool table but I might be wrong about that. The atmosphere is comfortable and modern; the employees are all friendly and welcoming. The pool area was gorgeous, but it was too cold for anyone to enjoy this time of year. We are never disappointed when staying at an Aloft hotel.More</t>
   </si>
   <si>
-    <t>MandevilleDad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r560337074-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -765,9 +1032,6 @@
     <t>This is a chic hotel. But also convenient. Less than 5m shuttle trip from Love Field. They even sent the shuttle to pick me up at the car rental (saved $60 by being able to turn in early). It is actually 2 hotels in one. The room set up is nice. Large bathroom. Only complaint is a weird opaque window between the shower and the room sends light throughout room. No way anyone could sleep. The coolest feature is a robot that brings you treats, too cool.</t>
   </si>
   <si>
-    <t>mosleydeja</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r560119965-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -786,9 +1050,6 @@
     <t>My aunt, grandma &amp; i had an inconvenient situation. Attempting to fly back to Chicago, our flights were canceled. We checked into Aloft, as a last minute thing. We got dropped off tired &amp; frustrated. When i tell you the man at the front desk was BEAUTIFUL... he made me wake up. He was extremely handsome, if i could get his number , i would have. We were greeted by both people at the desk. All smiles &amp; good vibes. Walking toward the elevator, there was lemon/lime water, cold &amp; fresh. We stayed on the 8th floor, we got into our room &amp; it was very cozy, clean &amp; sheik looking. The bathroom design was very nice, dark colors are nice to me. Everyone was very nice &amp; made us feel welcomed. Even checking out was a breeze. I plan to visit Dallas again this year, 2018, if i do, I’ll definitely book at this hotel again. They don’t have free breakfast. However, it’s still delicious. Id recommend this location to anyone looking for hotels for a visit to dallas!More</t>
   </si>
   <si>
-    <t>Mr13204u</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r558314513-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -805,9 +1066,6 @@
   </si>
   <si>
     <t>January 2018</t>
-  </si>
-  <si>
-    <t>godsbooboo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r557139179-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -842,9 +1100,6 @@
 I guess I expected more from an "urban" "modern" hotel.  Just my opinion, but I would say the effort put into...I had been curious about this hotel and wanting to try it for many months. I had the opportunity the night before a flight. The positives:  location, exercise equipment and a comfortable bed.Check-in was the second worst I've ever experienced (first was in 1993 in Boston).  I had reserved a room under the prepaid rate and received an email confirmation the night before. At check-in the man kept saying the credit card on the reservation was denying payment. I showed him my email confirmation, twice; he went to an office to look for some woman but was told she was gone for the day.  Ultimately he figured it out and we were checked in and on our way to our room.  I fault management for leaving someone at the front desk, on a Saturday afternoon, who clearly did not know what he was doing.This hotel is supposedly "green."  No recycle receptacles were in our room, only trash bins. The interior of the sliding door to the toilet had splashed stains on the bottom with hair stuck to it and the interior hand grip to open the door was on the wrong end. The faucet over the sink was loose and wobbly. The lids for the coffee cups by the coffee maker had old coffee stains on them. I guess I expected more from an "urban" "modern" hotel.  Just my opinion, but I would say the effort put into a modern and popular design should have been put forth in the management and upkeep of the hotel.More</t>
   </si>
   <si>
-    <t>mom72403</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r556786030-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -869,9 +1124,6 @@
     <t>Excellent hotel.  Great staff, super clean!   We really enjoyed our stay. Easy drive to convention center, airport and Northpark shopping/dining area.  Great value for a trendy place with a great hotel lobby atmosphere/bar, board games, pool table.  More</t>
   </si>
   <si>
-    <t>stevenhou77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r556340269-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -890,9 +1142,6 @@
     <t>I stayed at the aloft/element recently and throughout my stay I kept getting misdirected rather it be looking for a package, getting something sent up to my room (asked for toothpaste had to call 3 times to get it) , not having my room serviced for the day even when i personally told the housekeeper can she make sure it was done. So so far I wasn’t having the best time even though staff was friendly. It took for me to come down for a snack when the 2 gentlemen at the desk Troy &amp; Manny asked me how I was my room &amp; stay so far. I told them the situation and Troy apologized and asked me did I want something from the snack area which I grabbed a soda. These 2 stood out to me because of their conversation and hospitality and appreciated the niceness and the gesture.More</t>
   </si>
   <si>
-    <t>betsy2626</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r555260469-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -908,9 +1157,6 @@
     <t>I had never stayed at an Aloft but will again for sure.  It was very clean and the customer service was exceptional.  Great, engaging front desk staff and I love the "butler"/robot.I would like to mention Allen, Kazhimere, Brad</t>
   </si>
   <si>
-    <t>Kaity5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r554863672-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -926,9 +1172,6 @@
     <t>My daughter have been staying here since it opened.  We are here almost monthly.  The hotel is always very attractive and clean.  Ky, Donald, Adrian and a gentleman bar tender go out of their way to accommodate any need we may have.  They are a real asset to the hotel.  The Robot always brings a smile to our face.</t>
   </si>
   <si>
-    <t>Roxann F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r554222050-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -953,7 +1196,31 @@
     <t>Thank you for friendly staff at night at the XYZ bar and checking. The manager Adrian greeted me while checking in and the next morning. Excellent Customer Service. Room was excellent comfortable and full Suite. Highly recommend. More</t>
   </si>
   <si>
-    <t>kingbethany</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r549472708-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>549472708</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Comfortable one night stay</t>
+  </si>
+  <si>
+    <t>Stayed here one night before a flight from Love Field. Room was very comfortable and sported a loft feeling. The room felt open and normal clutter was tucked away. Bathroom had the toilet and shower with the sink in a separate area. Surprisingly, it was very quiet for being so close to the airport. I don't remember hearing any noise from planes from check in to check out. The guy at the front desk was very friendly and asked our preference of a room (elevator proximity, floor level). He also introduced us to the robot butler who will bring you whatever you need - cool feature, too bad we didn't get a chance to use it. Hotel was easy to find, but beware the Dallas traffic can get backed up around dinner time.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Nina T, Front Office Manager at Aloft Dallas Love Field, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here one night before a flight from Love Field. Room was very comfortable and sported a loft feeling. The room felt open and normal clutter was tucked away. Bathroom had the toilet and shower with the sink in a separate area. Surprisingly, it was very quiet for being so close to the airport. I don't remember hearing any noise from planes from check in to check out. The guy at the front desk was very friendly and asked our preference of a room (elevator proximity, floor level). He also introduced us to the robot butler who will bring you whatever you need - cool feature, too bad we didn't get a chance to use it. Hotel was easy to find, but beware the Dallas traffic can get backed up around dinner time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r548814389-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -974,9 +1241,6 @@
     <t>Our first experience with Aloft was when we called to confirm that we could bring our 3 small dogs (since most hotels have a 2 dog limit) and the man who answered the phone was so happy and so cheerful when he said we could have all 3 dogs! Excellent customer service! Pros:Beautiful, new, hotel. Amazing amenities. Bar. Pool table and board games. Beautiful pool. Dog friendly with no pet fee! Comfy bed. Big TV! Great location. Such friendly employees!! (You can never truly say enough about excellent customer service!) Cons:Parking is kinda terrible. The spots are very small so if you can manage to get your vehicle in the spot correctly you probably won’t be able to open your car door. There are two bright flashing lights on the ceiling. I’m guessing the smoke detectors? Just way overly bright. Like constant lightning.The pillows suck. Basically pockets of air that disappear when laying your head down.The hotel charged my credit card twice for the room. Once when I prepaid and then again on arrival. I’m not really sure why that happened but I will update review if it’s a hassle getting the second charge removed.Overall, the pros definitely outweigh the cons and this is an amazing hotel experience. I want to stay here every time we come to Dallas in the future! More</t>
   </si>
   <si>
-    <t>julieddavis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r547005271-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1001,9 +1265,6 @@
     <t>Even though we are local to the Dallas area, I booked this hotel for my husband and me to stay in after an event instead of driving home late to the 'burbs. I chose it for its proximity to the venue and price ($113+tax). The room and bed were comfortable, but there is no bathtub - just a stand-up shower. This hotel isn't for romance - It's very basic, but it's exactly what you need if you are traveling for business and want to be close to Love Field. I didn't, however, appreciate the maid knocking on our door at 9:00 AM to make sure we were checking out (which wasn't until 12:00 PM).More</t>
   </si>
   <si>
-    <t>Liliana P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r544333702-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1019,9 +1280,6 @@
     <t xml:space="preserve">I’m a local but new to the Dallas area. I went to grab a few drinks by the bar, Darius the Bartender was well educated when it came down to knowing his liquor  it was amazing how even when the bar was busy and he was solo he manage to keep everyone at the bar smiling i work in hospitality industry so i have an eye when it comes to observing good customer service 2 thumbs up keep up  i will definitely be back </t>
   </si>
   <si>
-    <t>Michaelexamines1234</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r541648262-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1049,9 +1307,6 @@
     <t>The Aloft Dallas Love Field is a wonderful hotel with a nicely equipped gym. This was my first Aloft experience. The hotel has large rooms with fantastic views.  I found the room to be nicely decorated, extremely clean and comfortable. The entire staff are friendly and helpful.  Once particular staff extended himself to make sure my stay was quite comfortable.  Brad Rodriguez is a real professional. He promptly assisted me, and a colleague, and took the time to listen to ensure our needs were met to our fullest satisfaction - Thank you, Brad!  This is a great hotel and I sincerely look forward to staying there again!  Thank you, Aloft!More</t>
   </si>
   <si>
-    <t>jefferyhalss201</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r541425381-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1088,9 +1343,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>taitaylor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r534887813-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1106,9 +1358,6 @@
     <t>Hello, I would like to advise you of my visit to your location.    I was checked in by Ky who was awesome by the way.  He’s was courteous and let me know everything that was available on my stay there.    I will definitely refer friends and colleagues!!!</t>
   </si>
   <si>
-    <t>MoonWillow420</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r527899344-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1130,9 +1379,6 @@
     <t>I stayed here a couple of months ago and had a really rough time since I brought my dogs and I wrote a review that reflected that experience. After speaking with the manager I decided to stay again and I am pleased to write this very high. There have been many changes including staff. One staff member in particular Sandy at the front desk is awesome and very helpful very personable she remembered me from staying here before and that meant a lot. The beds are extremely comfortable and so are the pillows I asked for it to be defeathered and they did it immediately and it is still very comfortable. The entire property including the element side is very clean and the housekeeping does a great job keeping everything clean and stocked. There still is Construction but there's nothing the hotel can do about that until it is completed.  My dogs are with me again and now that I understand how Urban living is we have made the appropriate adjustments and my dogs are enjoying the city walks and even using the elevator now. I highly recommend this hotel for the cleanliness the location and the staff.More</t>
   </si>
   <si>
-    <t>jwylie65</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r527716220-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1148,9 +1394,6 @@
     <t>I had an absolutely amazing stay at the Aloft Dallas Love Field! The rooms were nice, the hotel was clean and new, and the customer service was amazing. But I would have to say my reason for writing such a great review is because of the bartender Beth! She was awesome! She was very busy tending the bar but had a smile on her face and a quickness and her step with every move. She carried on great conversation with everyone at the bar, we were all raving about her and her fun energy! Thanks again for your amazing service, Beth! I will be back!</t>
   </si>
   <si>
-    <t>Katie F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r522727404-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1175,9 +1418,6 @@
     <t>The hotel is just exactly what you should expect for the price point. But the employees are on point! Kyron has been fantastic...going above and beyond to help me! He went out of his way to deliver items to my room and remembered my name every time I walked in the door. Sometimes it can be the little things that make you feel special and home in a city far away from home. And, Darious, the bartender, deserves a shout out. Friendly and makes a great drink!! More</t>
   </si>
   <si>
-    <t>Kayla O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r522450636-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1196,9 +1436,6 @@
     <t>Keith is so accommodating! He is such a gentlemen! He provides exceptional customer service and is so friendly! He was patient with my coworkers and I and was glad to suggest different shops and restaurants nearby. We are a lot of laughs and fun and he was a good sport! We will definitely be requesting that our company keep us at aloft! It's so comforting to know that we will be taken care of by such wonderful staff! The rest of the staff is wonderful as well! More</t>
   </si>
   <si>
-    <t>Tia A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r522449497-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1214,9 +1451,6 @@
     <t>Keith is such an exceptional driver. He was amazing from beginning to end. He was full of so much personality that made us feel very welcomed. Such a huge asset to the hotel. We will definetly be back to see him. Such a gentleman!More</t>
   </si>
   <si>
-    <t>Vanessa N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r521233311-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1241,9 +1475,6 @@
     <t>My stay here is always convenient and rewarding. I LOVE the technology and the pool. Kyron is always super friendly and helpful. The food and bar are really good too. The parking and gym are the best and both really big.More</t>
   </si>
   <si>
-    <t>fanchon m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r520837349-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1268,9 +1499,6 @@
     <t>My stay here has been awesome! I miss it every time I leave. The staff here is one of the nicest, most accommodating staff I've ever met. Kyron especially will greet you at the front desk and get you checked in with easy and speed! :) More</t>
   </si>
   <si>
-    <t>Robbin V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r518534448-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1298,9 +1526,6 @@
     <t>My husband I and stayed here the night before catching an early flight out of Love Field. It is very conveniently located just minutes from the airport. The Aloft is very modern, but the decor is dark. I saw lots of animals, so it must be a pet friendly property. I loved the soap they had in the dispenser in the bathroom and that never happens! My only complaint is that the air conditioner in the room was louder than an airplane every time it kicked on! More</t>
   </si>
   <si>
-    <t>humpriesed979</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r517388627-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1319,9 +1544,6 @@
     <t>Hotel was great! Very nice I was told it was opened in February and it still had that new hotel smell lol, never stayed at a place that is two hotels in one but Troy did a great job with explaining the difference between both of them, enjoyed my conversation with him. I stayed on the aloft side and the lobby was very spacious and nice. The rooms are beautiful and the beds are comfortable. Hope to be back soon.More</t>
   </si>
   <si>
-    <t>Justin H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r517238953-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1346,9 +1568,6 @@
     <t>I will start off by saying I don't typically write reviews but this experience has left me with a bad taste in my mouth. I have stayed at this ALoft many times over the past 4 months with no issues.I am now on my 3rd room during this stay. Neither of the first two rooms would cool below 75 with the AC set to 65. The engineering staff fixed the problem by removing the grate or louvers which in turn let the air flow straight out onto the bed. I didn't realize this night one and woke up with my nose completely stopped up with sinuses inflamed and a pounding headache. I switch rooms and the same thing happened with the AC and engineering "fix". This is when I made the final room switch....It seems like this hotel is being neglected or I just drew a couple bad straws in a row. Needless to say I will be staying elsewhere on my weekly trips to Dallas  More</t>
   </si>
   <si>
-    <t>DeeDee P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r513901897-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1373,9 +1592,6 @@
     <t>Really nice place. Convenient to downtown. Loved the room, very modern design. Really techno convenient accessories. Nice pool,workout center, bar, and food counter. Nice employees. Good price. Water conservation and trash recycling. Will stay again.More</t>
   </si>
   <si>
-    <t>tmw8318</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r511105031-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1400,9 +1616,6 @@
     <t>I am a weekly resident of the Aloft dallas love field and it's always a pleasure to stay at this hotel.  The rooms are always clean, as well as the main areas. Marcus is always at the front desk in the mornings with a great smile and an eagerness to be of assistance.  Every time I have had an issue, he has helped to resolve the problem.  When I return from work in the evenings, Troy often asks how was my day and if there is anything he can do to make my evening great.  Truly great customer service all around. The staff overall is helpful, and when I'm early enough to make breakfast, Holly always makes a great breakfast sandwich and a bag lunch for the rest of my day.. Upon departure for the week , the shuttle driver Keith is always professional and puts safety first.  Hands down, one of the nicest hotels in the Love Field area.More</t>
   </si>
   <si>
-    <t>maliahrodg089</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r511003291-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1418,9 +1631,6 @@
     <t>We stayed here last minute due to not liking another hotel close by and I must say the hotel &amp; its staff blew us away! The hotel is big &amp; spacious with a totally different hotel on the other side. Troy was extremely polite &amp; helpful and even gave us a demo of the robot butler which is a must see! The bar was great, I forgot the young ladies name but she makes great cocktails. Definitely be back!More</t>
   </si>
   <si>
-    <t>JoLyne P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r510961663-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1442,9 +1652,6 @@
     <t>Stayed here one night / company booked location.New hotel opened within last few months. Staff was VERY friendly and provided great surrounding area information. Airport shuttle to/from Love Field.Room was modern and comfy. Mini fridge was a bonus. Quiet room even though it faced the main street. Shower was wonderful! Shampoo and body wash dispensers on wall - fluffy towels.I did not try the bar or food options. Menu looked very simple but adequate. Shuttle would take you to other eateries close by if needed.More</t>
   </si>
   <si>
-    <t>W2574FZbethm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r510123290-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1469,9 +1676,6 @@
     <t>We felt like we had our own "tiny house" when we got to the room. Everything was so compact. The stay was very nice even though we had to pay $8 to park in their parking lot. There was no restaurant but the bar/store area was nice. I would stay again. More</t>
   </si>
   <si>
-    <t>Shane S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r509868325-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1496,9 +1700,6 @@
     <t>My wife and I went on a weekend trip to Dallas. We really enjoyed the stay here. Everyone was nice and clean. Our room was just what we wanted. Check in and check out was fast. Marcus and Chi were awesome. More</t>
   </si>
   <si>
-    <t>zazbzc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r509069200-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1523,9 +1724,6 @@
     <t>NINA rocks the casbah.she and her staff did a wonderful job of taking care of me during my first stay at Element. beautiful rooms, yummy free breakfast, great shuttle driver. thanks a zillion everyonedave cookMore</t>
   </si>
   <si>
-    <t>co_bears_fan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r508846576-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1544,9 +1742,6 @@
     <t>This is a great new hotel.  I love the workout room and the location.  Stephanny at the front desk was amazing.  I had a few special requests that she went above and beyond on and took care of making sure my stay was the best it could be.  This is now my go to hotel in Dallas....mostly because of the service i received from Stephanny.  Great Job!!!More</t>
   </si>
   <si>
-    <t>stevenre1969</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r502384871-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1572,9 +1767,6 @@
   </si>
   <si>
     <t>First time staying at the Aloft Hotel after my flight was delayed and my family had to spend the night and might I say I was amazed. Everything was (new) up to date, quiet, staff was very professional, and the family loved the robot. We will be coming back next time we're in Dallas.More</t>
-  </si>
-  <si>
-    <t>709MDS</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r499926665-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1611,9 +1803,6 @@
 Since we had time we went to enjoy...We chosen this hotel due to proximity of the airport and the fact it was a newer hotel. The photos also made it seem like a fun trendy hotel. We didn't have reservations but we did see they had availability online . The location of the hotel is about a mile from the airport entrance which is a plus if you have a super early flight like we did. When we pulled up we noticed it looked like two hotels that shared the same main entrance. One was an extended stay and the left side was Aloft. When you enter the lobby of the Aloft it truly looks like a Loft apartment. Open concept, trendy. You can see the bar, they had a small food area, pool table and sitting areas. The front desk check in was great. She was very welcoming. Told us about the hotel and we met the "Botlr" . It's a robot that will bring you towels or something from the food area! So cool we couldn't wait to try that later. We stayed on the 6th floor and the halls were very trendy as well. We liked the layout of our room. We had 2 beds and loved how the sleeping area was divided with the bath area. Very clean hotel. We had a great view of the airport so we got to watch flights taking off. Since we had time we went to enjoy the pool. Stopped by the bar and that's where we met Deedra. She was awesome and helped turn our stressful travel day into a fun enjoyable evening. We had a few drinks and went to enjoy the pool. The pool area is awesome as well. Lots of seating areas and then pool chairs around the pool. We went back and ordered some chips and salsa and guacamole as a snack before we headed back to our room. Service was great! They have a food menu and the food looked great we just wanted a snack. The food was fantastic and they really catered to us. We looked at the mini store they had of food selections we could purchase and that was open 24 hours. Good to know since we had to leave at 4am.We took our room bath towels to the pool however you don't need to do that. They have pool towels at the pool for guests!! So we took that as a perfect opportunity to order more towels and have the "Botlr" bring them to us. We also asked for skittles... why not ? Later we learned that the Botlr was out of service and our items were delivered he old fashioned way.Would definitely stay at another Aloft hotel based on our experience here.More</t>
   </si>
   <si>
-    <t>dixonaz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r498943203-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1635,9 +1824,6 @@
     <t>The hotel is conveniently located near Love Field but only 20 minutes from the big Dallas airport.  Nina, the manager on duty was excellent and met our every need.  The rest of the staff, Sandy, Heather, Trent, Mel, Mary, Kendra and Jane were awesome as well as your cleaning staff even though they did not speak English.  The driver on duty Saturday evening, July 2, was very informative as well as Kendra.  I have been in corporate America for over 20 years in executive positions and I know good customer service when I see it and they performed it very naturally.  I even had the opportunity on Saturday night after returning from "Social Pie Pizza Restaurant" an irate customer and the staff handled it correctly.  The woman was cursing and your staff remained calm, that's how its done.  My wife and I like the Sheraton Stonebriar in Fresno but from now on, we know our best value and comfort is at the Aloft/Element Love Field location.  This is a winning team so hold on to them and promote them as soon as possible so that all of SPG can reap these rewards from some stellar individuals.See "Yall" soonMore</t>
   </si>
   <si>
-    <t>nflmommy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r498668935-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1660,9 +1846,6 @@
   </si>
   <si>
     <t>Aloft is conveniently located to Dallas Love Field Airport.  We stayed here just one night as we had an early AM flight the next morning. Everything was clean and the beds were comfortable.   The mini fridge did not work but we alerted the staff member upon check out. More</t>
-  </si>
-  <si>
-    <t>aviators99</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r496515552-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1697,9 +1880,6 @@
 I'm particularly sensitive to noise, so the noise problems might not be an issue for you.  The bed was comfortable (although I...This is a fine hotel if you can sleep through various noise factors.  Staff was very friendly, although the maintenance person did not speak English and the front desk gentleman was trying to communicate my issues with him in a made-up sign language.I always put in my online reservation that I am noise sensitive.  I didn't see anything online about noise issues with the hotel.  The first thing that struck me was the fact that the A/C handler was extremely loud, depending on where you were in the room.  Its location below a faux desk makes for a "megaphone" sort of effect, and a loud, low frequency roar was unbearable to me.  Unfortunately, the "perfect" spot to be inundated with that noise was in the bed, on the side where I normally sleep.  Also, there is an "ozone" type of smell coming from the unit that is nauseating to me.I was offered a different room, which I accepted, because it was situated in reverse, so  where I would try to sleep wasn't as bad.  However, then came the loud train noises until after midnight.  It would have been nice to know about that in advance.Also, there was a pubic hair on the toilet seat and a long hair in the shower (in the 2nd room).I'm particularly sensitive to noise, so the noise problems might not be an issue for you.  The bed was comfortable (although I didn't sleep, because the A/C noise turned out to be bad enough, even with the new positioning), and as mentioned before, the staff was very nice.  The amenities are very, very basic, but I believe that's by design with Aloft.  Location is excellent if you need to be near LUV.More</t>
   </si>
   <si>
-    <t>DRWMETMAN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r496109444-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1718,9 +1898,6 @@
     <t>Location = A+ (close to Love Field, close to UTSW); but, there are growing pains and pain elsewhere due to modern seating more stylish than comfortable. This hotel opened in February 2017 and is very modern with lots of glass, angular furniture and dormatory-feel rooms. One of the seating areas in the room was a bench under the television - who designed that? The lobby is sleek and sterile. The breakfast area has plastic chairs. In short, there was no place to get comfortable in this hotel!. As for growing pains - The front desk was inadequately staffed at check-in and check-out. Even though the website says 5 min from the airport (for the shuttle), it took &gt;30 min to get a ride. There is a breakfast area where one can purchase a sammich, but the options are limited and service is slow - one person is the major reason. That being said, the staff were friendly.More</t>
   </si>
   <si>
-    <t>Dee W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r492875424-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1748,9 +1925,6 @@
     <t>The rooms are minimal, however, very comfortable.  The windows provide an excellent view if you're on the Dallas downtown side.  The planes taking off are not intrusive, at all.  The self-serve breakfast was light and adequate.  Pleasant atmosphere.Great work station, if you don't mind being in an open type space with a hint of privacy/security; also not intrusive.The room could have provided at least 1 or 2 additional mirrors.  The bathroom lighting is subdued and putting makeup on was more than trying.  So, I finished the makeup job in the car mirror.  Outdoor pool and deck pleasant.More</t>
   </si>
   <si>
-    <t>dantewilliam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r488058300-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1775,9 +1949,6 @@
     <t>I work as a private pilot for a company, our company usually books our hotel in downtown Dallas. This time we were booked at this particular hotel because most of the rooms in downtown Dallas were booked because of the memorial days weekend. The front desk agent in this hotel were very rude and it looked like they were bored working at the hotel. Other staffs at the bars and the security were very friendly. I have requested our company to not book our stay here for the future because of the front desk agents behavior.More</t>
   </si>
   <si>
-    <t>DanaeHW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r486897266-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1797,9 +1968,6 @@
   </si>
   <si>
     <t>After staying on the Element side a few months ago, I decided to give the Aloft side a try. The two hotels are very different aesthetically but are both very beautiful. The Aloft side has more of a darker beauty and the Element side is light and airy. Both have a lot of modern features. The customer service is great no matter which side you stay on. More</t>
-  </si>
-  <si>
-    <t>Melissa B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r485945823-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1828,9 +1996,6 @@
 My only negative comment would be about the bed. It was extremely firm. I like...We mainly chose this location because of the proximity to Dallas Love Field. My friend we were visiting lived multiple hours away, and we had an early morning flight.  There is a free shuttle to the airport that runs every 30 minutes. Check-in was easy, and the staff was very attentive. As the hotel opened earlier this year, it was in pristine shape. My son enjoyed the lobby pool table, and since we didn't have anywhere to go, we played several games. We were able to use the outdoor swimming pool, which was also a blast. I was able to lounge under an umbrella, while I watched my son swim.Since we didn't have a car, we assumed we were going to eat at the bar. When we got down there, my very picky son didn't like anything on their menu; however the bartender informed us the shuttle takes you anywhere you want to go within a 3 mile radius. She made a suggestion, and we were on our way.The room was pleasant. It was a bit odd to have the mini fridge under the sink, but it didn't bother us. We had a room on the 7th floor in which we could see the Dallas skyline, an awesome view. We even watched as storms rolled by and lit up the city with lightening.My only negative comment would be about the bed. It was extremely firm. I like a firm bed (75 out of 99 on a sleep number bed), but this felt like I was sleeping on plywood. There was also a foam mattress cover that made the bed feel lumpy.  None in my party of 3 slept well.Overall, I would stay again for the airport convenience, but not for an extended stay based on the mattress being uncomfortable to us.More</t>
   </si>
   <si>
-    <t>JasonRoeber</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r485912049-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1846,9 +2011,6 @@
     <t>I stayed for 3 nights and help a meeting for 20 people and the Aloft staff were awesome.  They brought in a great lunch and refreshments and bent over backwards to help us out in every way they could.It was very different from what I usually experience at most hotels where apathy is the norm.i'm going to make this my home in Dallas when I'm there, which is about twice a month.More</t>
   </si>
   <si>
-    <t>miss u</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r484254921-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1873,9 +2035,6 @@
     <t>Just had to say, I really enjoyed my stay here at this hotel. We celebrated my boyfriend birthday here over the weekend stayed friday-sunday. The customer service was really nice. I want to thank Detorrian for helping me with checking in &amp; making sure we were okay. I would surely stay again and we had a blast in the pool Saturday night! I had a room on 8th floor facing pool/back side of hotel yes they have a robot butler how awesome!!!! More</t>
   </si>
   <si>
-    <t>RL H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r480043485-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1903,9 +2062,6 @@
     <t>Check in is at 3.  Arrive at 3:45 and told to wait another hour. Rooms are so so, nothing special.  Appears they spent money on looking trendy, not on providing services. For what I spent on this place, I would have expected something better.  More</t>
   </si>
   <si>
-    <t>nikkigh2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r475109304-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1924,9 +2080,6 @@
     <t>We stayed March 31, 2017 because we had an early morning flight out of Love Field.  This hotel was nice and clean and the bed and pillows were comfortable.  It is also very convenient to Love Field without the noise of the airport.More</t>
   </si>
   <si>
-    <t>Ddb2422</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r473619454-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1951,9 +2104,6 @@
     <t>The hotel is average because it is on the lower end of an SPG hotel brand. The rooms were average size, clean and modern.The refrigerator in the room smelt like the last guests dinner and when you opened it the room was filled with the smell for a long time.Parking was limited in the front of the hotel and your only choice was to park in the back that was a bit of a walk. Then you had to go back to go back to your car to put a parking pass for the hotel to avoid your car getting towed. I would stay again but nothing special.More</t>
   </si>
   <si>
-    <t>Bgomez1810</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r473031942-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1981,9 +2131,6 @@
     <t>We had a nice stay.  The rooms were large very clean and with a modern feel to them.  99% of the staff was nice (except for one employee didn't even bother to get his name).Close to everything we needed to do.  Will stay again.More</t>
   </si>
   <si>
-    <t>Cindy W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r470934242-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2000,9 +2147,6 @@
   </si>
   <si>
     <t>The bed was heavenly - I can't remember the last time I slept so well!  The staff is very friendly and professional.   The amenities are such a comfort - makes it feel like home but even better.  I would recommend this hotel to everyone!!!  Highly satisfied!!!More</t>
-  </si>
-  <si>
-    <t>Merrill M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12246008-r470310259-Aloft_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -2528,246 +2672,218 @@
       <c r="A2" t="n">
         <v>65799</v>
       </c>
-      <c r="B2" t="n">
-        <v>117785</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65799</v>
       </c>
-      <c r="B3" t="n">
-        <v>7874</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65799</v>
       </c>
-      <c r="B4" t="n">
-        <v>117786</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65799</v>
       </c>
-      <c r="B5" t="n">
-        <v>117787</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
         <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2781,121 +2897,107 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65799</v>
       </c>
-      <c r="B6" t="n">
-        <v>117788</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65799</v>
       </c>
-      <c r="B7" t="n">
-        <v>117789</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2909,54 +3011,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65799</v>
       </c>
-      <c r="B8" t="n">
-        <v>117790</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2970,121 +3068,107 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65799</v>
       </c>
-      <c r="B9" t="n">
-        <v>117791</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65799</v>
       </c>
-      <c r="B10" t="n">
-        <v>117792</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3098,54 +3182,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65799</v>
       </c>
-      <c r="B11" t="n">
-        <v>23407</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3159,54 +3239,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65799</v>
       </c>
-      <c r="B12" t="n">
-        <v>117793</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3220,54 +3296,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65799</v>
       </c>
-      <c r="B13" t="n">
-        <v>3734</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3281,119 +3353,107 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65799</v>
       </c>
-      <c r="B14" t="n">
-        <v>117794</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65799</v>
       </c>
-      <c r="B15" t="n">
-        <v>117795</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3407,66 +3467,62 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65799</v>
       </c>
-      <c r="B16" t="n">
-        <v>47278</v>
-      </c>
-      <c r="C16" t="s">
-        <v>139</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3474,54 +3530,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65799</v>
       </c>
-      <c r="B17" t="n">
-        <v>117796</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3535,54 +3587,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65799</v>
       </c>
-      <c r="B18" t="n">
-        <v>117797</v>
-      </c>
-      <c r="C18" t="s">
-        <v>154</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3596,54 +3644,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65799</v>
       </c>
-      <c r="B19" t="n">
-        <v>117798</v>
-      </c>
-      <c r="C19" t="s">
-        <v>159</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3657,54 +3701,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65799</v>
       </c>
-      <c r="B20" t="n">
-        <v>85191</v>
-      </c>
-      <c r="C20" t="s">
-        <v>165</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3718,54 +3758,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65799</v>
       </c>
-      <c r="B21" t="n">
-        <v>86603</v>
-      </c>
-      <c r="C21" t="s">
-        <v>172</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3779,115 +3815,111 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65799</v>
       </c>
-      <c r="B22" t="n">
-        <v>117799</v>
-      </c>
-      <c r="C22" t="s">
-        <v>178</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65799</v>
       </c>
-      <c r="B23" t="n">
-        <v>11367</v>
-      </c>
-      <c r="C23" t="s">
-        <v>184</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3901,121 +3933,107 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65799</v>
       </c>
-      <c r="B24" t="n">
-        <v>117800</v>
-      </c>
-      <c r="C24" t="s">
-        <v>190</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65799</v>
       </c>
-      <c r="B25" t="n">
-        <v>117801</v>
-      </c>
-      <c r="C25" t="s">
-        <v>196</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4029,61 +4047,59 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65799</v>
       </c>
-      <c r="B26" t="n">
-        <v>117802</v>
-      </c>
-      <c r="C26" t="s">
-        <v>203</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="n">
         <v>5</v>
       </c>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>1</v>
@@ -4094,119 +4110,107 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65799</v>
       </c>
-      <c r="B27" t="n">
-        <v>47058</v>
-      </c>
-      <c r="C27" t="s">
-        <v>209</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65799</v>
       </c>
-      <c r="B28" t="n">
-        <v>9663</v>
-      </c>
-      <c r="C28" t="s">
-        <v>215</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O28" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4220,115 +4224,113 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65799</v>
       </c>
-      <c r="B29" t="n">
-        <v>117803</v>
-      </c>
-      <c r="C29" t="s">
-        <v>221</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65799</v>
       </c>
-      <c r="B30" t="n">
-        <v>117804</v>
-      </c>
-      <c r="C30" t="s">
-        <v>227</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4342,180 +4344,170 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65799</v>
       </c>
-      <c r="B31" t="n">
-        <v>117805</v>
-      </c>
-      <c r="C31" t="s">
-        <v>234</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65799</v>
       </c>
-      <c r="B32" t="n">
-        <v>117806</v>
-      </c>
-      <c r="C32" t="s">
-        <v>241</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="O32" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65799</v>
       </c>
-      <c r="B33" t="n">
-        <v>117807</v>
-      </c>
-      <c r="C33" t="s">
-        <v>247</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="O33" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4529,192 +4521,164 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65799</v>
       </c>
-      <c r="B34" t="n">
-        <v>117808</v>
-      </c>
-      <c r="C34" t="s">
-        <v>254</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="J34" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="K34" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65799</v>
       </c>
-      <c r="B35" t="n">
-        <v>117809</v>
-      </c>
-      <c r="C35" t="s">
-        <v>261</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="J35" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="K35" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>267</v>
-      </c>
-      <c r="X35" t="s">
-        <v>268</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65799</v>
       </c>
-      <c r="B36" t="n">
-        <v>117810</v>
-      </c>
-      <c r="C36" t="s">
-        <v>270</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O36" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4725,250 +4689,234 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>276</v>
-      </c>
-      <c r="X36" t="s">
-        <v>277</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65799</v>
       </c>
-      <c r="B37" t="n">
-        <v>117811</v>
-      </c>
-      <c r="C37" t="s">
-        <v>279</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="J37" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="K37" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="L37" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65799</v>
       </c>
-      <c r="B38" t="n">
-        <v>117812</v>
-      </c>
-      <c r="C38" t="s">
-        <v>286</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>1</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65799</v>
       </c>
-      <c r="B39" t="n">
-        <v>117813</v>
-      </c>
-      <c r="C39" t="s">
-        <v>292</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="J39" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="K39" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="L39" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65799</v>
       </c>
-      <c r="B40" t="n">
-        <v>117814</v>
-      </c>
-      <c r="C40" t="s">
-        <v>298</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="J40" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4979,61 +4927,53 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>304</v>
-      </c>
-      <c r="X40" t="s">
-        <v>305</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65799</v>
       </c>
-      <c r="B41" t="n">
-        <v>117815</v>
-      </c>
-      <c r="C41" t="s">
-        <v>307</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="J41" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="K41" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
+        <v>175</v>
+      </c>
+      <c r="O41" t="s">
         <v>60</v>
-      </c>
-      <c r="O41" t="s">
-        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5047,125 +4987,107 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65799</v>
       </c>
-      <c r="B42" t="n">
-        <v>117816</v>
-      </c>
-      <c r="C42" t="s">
-        <v>314</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="J42" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="K42" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
+        <v>175</v>
+      </c>
+      <c r="O42" t="s">
         <v>60</v>
       </c>
-      <c r="O42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>320</v>
-      </c>
-      <c r="X42" t="s">
-        <v>321</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65799</v>
       </c>
-      <c r="B43" t="n">
-        <v>117817</v>
-      </c>
-      <c r="C43" t="s">
-        <v>323</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="J43" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="K43" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="O43" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5179,125 +5101,107 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65799</v>
       </c>
-      <c r="B44" t="n">
-        <v>117818</v>
-      </c>
-      <c r="C44" t="s">
-        <v>329</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="J44" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="K44" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="L44" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>336</v>
-      </c>
-      <c r="X44" t="s">
-        <v>337</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65799</v>
       </c>
-      <c r="B45" t="n">
-        <v>117819</v>
-      </c>
-      <c r="C45" t="s">
-        <v>339</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="J45" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="L45" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5308,14 +5212,10 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>336</v>
-      </c>
-      <c r="X45" t="s">
-        <v>337</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46">
@@ -5328,37 +5228,37 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="J46" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="K46" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="L46" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5372,115 +5272,113 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65799</v>
       </c>
-      <c r="B47" t="n">
-        <v>117820</v>
-      </c>
-      <c r="C47" t="s">
-        <v>352</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="J47" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="K47" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="O47" t="s">
-        <v>89</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65799</v>
       </c>
-      <c r="B48" t="n">
-        <v>117821</v>
-      </c>
-      <c r="C48" t="s">
-        <v>358</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="J48" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="K48" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5494,180 +5392,172 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65799</v>
       </c>
-      <c r="B49" t="n">
-        <v>117822</v>
-      </c>
-      <c r="C49" t="s">
-        <v>366</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="J49" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="K49" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65799</v>
       </c>
-      <c r="B50" t="n">
-        <v>32263</v>
-      </c>
-      <c r="C50" t="s">
-        <v>372</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="J50" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="K50" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="L50" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>378</v>
-      </c>
-      <c r="X50" t="s">
-        <v>379</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65799</v>
       </c>
-      <c r="B51" t="n">
-        <v>10129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>381</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="J51" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="K51" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5678,61 +5568,53 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>378</v>
-      </c>
-      <c r="X51" t="s">
-        <v>379</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65799</v>
       </c>
-      <c r="B52" t="n">
-        <v>117823</v>
-      </c>
-      <c r="C52" t="s">
-        <v>388</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>390</v>
+        <v>309</v>
       </c>
       <c r="J52" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="K52" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5743,61 +5625,53 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>378</v>
-      </c>
-      <c r="X52" t="s">
-        <v>379</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65799</v>
       </c>
-      <c r="B53" t="n">
-        <v>117824</v>
-      </c>
-      <c r="C53" t="s">
-        <v>394</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="J53" t="s">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="K53" t="s">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="L53" t="s">
-        <v>399</v>
+        <v>317</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="O53" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5808,126 +5682,114 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>400</v>
-      </c>
-      <c r="X53" t="s">
-        <v>401</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>402</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65799</v>
       </c>
-      <c r="B54" t="n">
-        <v>117825</v>
-      </c>
-      <c r="C54" t="s">
-        <v>403</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="J54" t="s">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="K54" t="s">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="L54" t="s">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="O54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>409</v>
-      </c>
-      <c r="X54" t="s">
-        <v>410</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65799</v>
       </c>
-      <c r="B55" t="n">
-        <v>31573</v>
-      </c>
-      <c r="C55" t="s">
-        <v>412</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="J55" t="s">
-        <v>415</v>
+        <v>327</v>
       </c>
       <c r="K55" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="L55" t="s">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5938,262 +5800,240 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>419</v>
-      </c>
-      <c r="X55" t="s">
-        <v>420</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65799</v>
       </c>
-      <c r="B56" t="n">
-        <v>117826</v>
-      </c>
-      <c r="C56" t="s">
-        <v>422</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>423</v>
+        <v>330</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>424</v>
+        <v>331</v>
       </c>
       <c r="J56" t="s">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="K56" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="L56" t="s">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P56" t="s"/>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>419</v>
-      </c>
-      <c r="X56" t="s">
-        <v>420</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>428</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65799</v>
       </c>
-      <c r="B57" t="n">
-        <v>2745</v>
-      </c>
-      <c r="C57" t="s">
-        <v>429</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="J57" t="s">
-        <v>432</v>
+        <v>338</v>
       </c>
       <c r="K57" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="L57" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
       <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>435</v>
-      </c>
-      <c r="X57" t="s">
-        <v>436</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>437</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65799</v>
       </c>
-      <c r="B58" t="n">
-        <v>117827</v>
-      </c>
-      <c r="C58" t="s">
-        <v>438</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>439</v>
+        <v>342</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>440</v>
+        <v>343</v>
       </c>
       <c r="J58" t="s">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="K58" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
-      </c>
-      <c r="P58" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
       <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="X58" t="s">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="Y58" t="s">
-        <v>446</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65799</v>
       </c>
-      <c r="B59" t="n">
-        <v>117828</v>
-      </c>
-      <c r="C59" t="s">
-        <v>447</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="J59" t="s">
-        <v>450</v>
+        <v>352</v>
       </c>
       <c r="K59" t="s">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s">
-        <v>452</v>
+        <v>354</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6205,193 +6045,177 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>453</v>
+        <v>355</v>
       </c>
       <c r="X59" t="s">
-        <v>454</v>
+        <v>356</v>
       </c>
       <c r="Y59" t="s">
-        <v>455</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65799</v>
       </c>
-      <c r="B60" t="n">
-        <v>117829</v>
-      </c>
-      <c r="C60" t="s">
-        <v>456</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="J60" t="s">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="K60" t="s">
-        <v>459</v>
+        <v>361</v>
       </c>
       <c r="L60" t="s">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="O60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P60" t="s"/>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>453</v>
-      </c>
-      <c r="X60" t="s">
-        <v>454</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>461</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65799</v>
       </c>
-      <c r="B61" t="n">
-        <v>117830</v>
-      </c>
-      <c r="C61" t="s">
-        <v>462</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>463</v>
+        <v>364</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>464</v>
+        <v>365</v>
       </c>
       <c r="J61" t="s">
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="K61" t="s">
-        <v>465</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s">
-        <v>466</v>
+        <v>368</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
       <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
-        <v>467</v>
-      </c>
-      <c r="X61" t="s">
-        <v>468</v>
-      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>469</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65799</v>
       </c>
-      <c r="B62" t="n">
-        <v>117831</v>
-      </c>
-      <c r="C62" t="s">
-        <v>470</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="J62" t="s">
-        <v>473</v>
+        <v>371</v>
       </c>
       <c r="K62" t="s">
-        <v>474</v>
+        <v>372</v>
       </c>
       <c r="L62" t="s">
-        <v>475</v>
+        <v>373</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
+      <c r="N62" t="s">
+        <v>341</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
@@ -6401,61 +6225,53 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>476</v>
-      </c>
-      <c r="X62" t="s">
-        <v>477</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65799</v>
       </c>
-      <c r="B63" t="n">
-        <v>44653</v>
-      </c>
-      <c r="C63" t="s">
-        <v>479</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>480</v>
+        <v>374</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>481</v>
+        <v>375</v>
       </c>
       <c r="J63" t="s">
-        <v>482</v>
+        <v>376</v>
       </c>
       <c r="K63" t="s">
-        <v>483</v>
+        <v>377</v>
       </c>
       <c r="L63" t="s">
-        <v>484</v>
+        <v>378</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6467,262 +6283,248 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="X63" t="s">
-        <v>486</v>
+        <v>380</v>
       </c>
       <c r="Y63" t="s">
-        <v>487</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>65799</v>
       </c>
-      <c r="B64" t="n">
-        <v>117832</v>
-      </c>
-      <c r="C64" t="s">
-        <v>488</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="J64" t="s">
-        <v>491</v>
+        <v>384</v>
       </c>
       <c r="K64" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
       <c r="L64" t="s">
-        <v>493</v>
+        <v>386</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
       <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>494</v>
+        <v>388</v>
       </c>
       <c r="X64" t="s">
-        <v>495</v>
+        <v>389</v>
       </c>
       <c r="Y64" t="s">
-        <v>496</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>65799</v>
       </c>
-      <c r="B65" t="n">
-        <v>117833</v>
-      </c>
-      <c r="C65" t="s">
-        <v>497</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>498</v>
+        <v>391</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>499</v>
+        <v>392</v>
       </c>
       <c r="J65" t="s">
-        <v>500</v>
+        <v>393</v>
       </c>
       <c r="K65" t="s">
-        <v>501</v>
+        <v>394</v>
       </c>
       <c r="L65" t="s">
-        <v>502</v>
+        <v>395</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P65" t="s"/>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
-      <c r="R65" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>494</v>
-      </c>
-      <c r="X65" t="s">
-        <v>495</v>
-      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>503</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65799</v>
       </c>
-      <c r="B66" t="n">
-        <v>117834</v>
-      </c>
-      <c r="C66" t="s">
-        <v>504</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>505</v>
+        <v>397</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>506</v>
+        <v>398</v>
       </c>
       <c r="J66" t="s">
-        <v>507</v>
+        <v>399</v>
       </c>
       <c r="K66" t="s">
-        <v>508</v>
+        <v>400</v>
       </c>
       <c r="L66" t="s">
-        <v>509</v>
+        <v>401</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>510</v>
+        <v>387</v>
       </c>
       <c r="O66" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
-      <c r="Q66" t="s"/>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
       <c r="R66" t="s"/>
       <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>511</v>
+        <v>402</v>
       </c>
       <c r="X66" t="s">
-        <v>512</v>
+        <v>403</v>
       </c>
       <c r="Y66" t="s">
-        <v>513</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65799</v>
       </c>
-      <c r="B67" t="n">
-        <v>117835</v>
-      </c>
-      <c r="C67" t="s">
-        <v>514</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>515</v>
+        <v>405</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>516</v>
+        <v>406</v>
       </c>
       <c r="J67" t="s">
-        <v>517</v>
+        <v>407</v>
       </c>
       <c r="K67" t="s">
-        <v>518</v>
+        <v>408</v>
       </c>
       <c r="L67" t="s">
-        <v>519</v>
+        <v>409</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
+      <c r="N67" t="s">
+        <v>387</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
       <c r="R67" t="s"/>
@@ -6732,63 +6534,57 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>520</v>
-      </c>
-      <c r="X67" t="s">
-        <v>521</v>
-      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>522</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>65799</v>
       </c>
-      <c r="B68" t="n">
-        <v>117836</v>
-      </c>
-      <c r="C68" t="s">
-        <v>523</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>524</v>
+        <v>410</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>525</v>
+        <v>411</v>
       </c>
       <c r="J68" t="s">
-        <v>526</v>
+        <v>412</v>
       </c>
       <c r="K68" t="s">
-        <v>527</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s">
-        <v>528</v>
+        <v>414</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>529</v>
+        <v>415</v>
       </c>
       <c r="O68" t="s">
-        <v>61</v>
-      </c>
-      <c r="P68" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
       <c r="Q68" t="n">
         <v>5</v>
       </c>
@@ -6802,60 +6598,56 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>520</v>
+        <v>416</v>
       </c>
       <c r="X68" t="s">
-        <v>521</v>
+        <v>417</v>
       </c>
       <c r="Y68" t="s">
-        <v>530</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>65799</v>
       </c>
-      <c r="B69" t="n">
-        <v>117837</v>
-      </c>
-      <c r="C69" t="s">
-        <v>531</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>532</v>
+        <v>419</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="J69" t="s">
-        <v>534</v>
+        <v>421</v>
       </c>
       <c r="K69" t="s">
-        <v>535</v>
+        <v>422</v>
       </c>
       <c r="L69" t="s">
-        <v>536</v>
+        <v>423</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>529</v>
+        <v>415</v>
       </c>
       <c r="O69" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6867,338 +6659,284 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>537</v>
+        <v>416</v>
       </c>
       <c r="X69" t="s">
-        <v>538</v>
+        <v>417</v>
       </c>
       <c r="Y69" t="s">
-        <v>539</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>65799</v>
       </c>
-      <c r="B70" t="n">
-        <v>117838</v>
-      </c>
-      <c r="C70" t="s">
-        <v>540</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>541</v>
+        <v>425</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>542</v>
+        <v>426</v>
       </c>
       <c r="J70" t="s">
-        <v>543</v>
+        <v>427</v>
       </c>
       <c r="K70" t="s">
-        <v>544</v>
+        <v>428</v>
       </c>
       <c r="L70" t="s">
-        <v>545</v>
+        <v>429</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
-      </c>
-      <c r="P70" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
       <c r="R70" t="s"/>
-      <c r="S70" t="n">
-        <v>1</v>
-      </c>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="n">
-        <v>5</v>
-      </c>
+      <c r="U70" t="s"/>
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s">
-        <v>546</v>
-      </c>
-      <c r="X70" t="s">
-        <v>547</v>
-      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>548</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>65799</v>
       </c>
-      <c r="B71" t="n">
-        <v>80088</v>
-      </c>
-      <c r="C71" t="s">
-        <v>549</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>550</v>
+        <v>431</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>551</v>
+        <v>432</v>
       </c>
       <c r="J71" t="s">
-        <v>552</v>
+        <v>433</v>
       </c>
       <c r="K71" t="s">
-        <v>553</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s">
-        <v>554</v>
+        <v>435</v>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
-      <c r="R71" t="n">
-        <v>5</v>
-      </c>
+      <c r="R71" t="s"/>
       <c r="S71" t="s"/>
       <c r="T71" t="s"/>
-      <c r="U71" t="n">
-        <v>3</v>
-      </c>
+      <c r="U71" t="s"/>
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s">
-        <v>546</v>
-      </c>
-      <c r="X71" t="s">
-        <v>547</v>
-      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>65799</v>
       </c>
-      <c r="B72" t="n">
-        <v>91026</v>
-      </c>
-      <c r="C72" t="s">
-        <v>556</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>557</v>
+        <v>436</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>558</v>
+        <v>437</v>
       </c>
       <c r="J72" t="s">
-        <v>559</v>
+        <v>438</v>
       </c>
       <c r="K72" t="s">
-        <v>560</v>
+        <v>439</v>
       </c>
       <c r="L72" t="s">
-        <v>561</v>
+        <v>440</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
       <c r="R72" t="s"/>
-      <c r="S72" t="n">
-        <v>5</v>
-      </c>
+      <c r="S72" t="s"/>
       <c r="T72" t="s"/>
-      <c r="U72" t="n">
-        <v>5</v>
-      </c>
+      <c r="U72" t="s"/>
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s">
-        <v>563</v>
-      </c>
-      <c r="X72" t="s">
-        <v>564</v>
-      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>565</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>65799</v>
       </c>
-      <c r="B73" t="n">
-        <v>117839</v>
-      </c>
-      <c r="C73" t="s">
-        <v>566</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>567</v>
+        <v>443</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>568</v>
+        <v>444</v>
       </c>
       <c r="J73" t="s">
-        <v>569</v>
+        <v>445</v>
       </c>
       <c r="K73" t="s">
-        <v>570</v>
+        <v>446</v>
       </c>
       <c r="L73" t="s">
-        <v>571</v>
+        <v>447</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
-      </c>
-      <c r="P73" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
       <c r="R73" t="s"/>
       <c r="S73" t="s"/>
       <c r="T73" t="s"/>
-      <c r="U73" t="n">
-        <v>1</v>
-      </c>
+      <c r="U73" t="s"/>
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s">
-        <v>572</v>
-      </c>
-      <c r="X73" t="s">
-        <v>573</v>
-      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65799</v>
       </c>
-      <c r="B74" t="n">
-        <v>117840</v>
-      </c>
-      <c r="C74" t="s">
-        <v>575</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>576</v>
+        <v>448</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>577</v>
+        <v>449</v>
       </c>
       <c r="J74" t="s">
-        <v>578</v>
+        <v>450</v>
       </c>
       <c r="K74" t="s">
-        <v>290</v>
+        <v>451</v>
       </c>
       <c r="L74" t="s">
-        <v>579</v>
+        <v>452</v>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="O74" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7210,60 +6948,56 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="X74" t="s">
-        <v>581</v>
+        <v>454</v>
       </c>
       <c r="Y74" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>65799</v>
       </c>
-      <c r="B75" t="n">
-        <v>1927</v>
-      </c>
-      <c r="C75" t="s">
-        <v>583</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>584</v>
+        <v>456</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="J75" t="s">
-        <v>586</v>
+        <v>458</v>
       </c>
       <c r="K75" t="s">
-        <v>587</v>
+        <v>459</v>
       </c>
       <c r="L75" t="s">
-        <v>588</v>
+        <v>460</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="O75" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7275,129 +7009,117 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="X75" t="s">
-        <v>581</v>
+        <v>454</v>
       </c>
       <c r="Y75" t="s">
-        <v>589</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>65799</v>
       </c>
-      <c r="B76" t="n">
-        <v>117841</v>
-      </c>
-      <c r="C76" t="s">
-        <v>590</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>591</v>
+        <v>462</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>592</v>
+        <v>463</v>
       </c>
       <c r="J76" t="s">
-        <v>586</v>
+        <v>458</v>
       </c>
       <c r="K76" t="s">
-        <v>593</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s">
-        <v>594</v>
+        <v>465</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
-      <c r="R76" t="n">
-        <v>5</v>
-      </c>
+      <c r="R76" t="s"/>
       <c r="S76" t="s"/>
       <c r="T76" t="s"/>
-      <c r="U76" t="n">
-        <v>5</v>
-      </c>
+      <c r="U76" t="s"/>
       <c r="V76" t="n">
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="X76" t="s">
-        <v>581</v>
+        <v>454</v>
       </c>
       <c r="Y76" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>65799</v>
       </c>
-      <c r="B77" t="n">
-        <v>64856</v>
-      </c>
-      <c r="C77" t="s">
-        <v>596</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>597</v>
+        <v>467</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I77" t="s">
-        <v>598</v>
+        <v>468</v>
       </c>
       <c r="J77" t="s">
-        <v>599</v>
+        <v>469</v>
       </c>
       <c r="K77" t="s">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="L77" t="s">
-        <v>601</v>
+        <v>471</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="O77" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7409,60 +7131,56 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>602</v>
+        <v>472</v>
       </c>
       <c r="X77" t="s">
-        <v>603</v>
+        <v>473</v>
       </c>
       <c r="Y77" t="s">
-        <v>604</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>65799</v>
       </c>
-      <c r="B78" t="n">
-        <v>117842</v>
-      </c>
-      <c r="C78" t="s">
-        <v>605</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s">
-        <v>607</v>
+        <v>476</v>
       </c>
       <c r="J78" t="s">
-        <v>608</v>
+        <v>477</v>
       </c>
       <c r="K78" t="s">
-        <v>609</v>
+        <v>478</v>
       </c>
       <c r="L78" t="s">
-        <v>610</v>
+        <v>479</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>611</v>
+        <v>441</v>
       </c>
       <c r="O78" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7474,360 +7192,1844 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>612</v>
+        <v>480</v>
       </c>
       <c r="X78" t="s">
-        <v>613</v>
+        <v>481</v>
       </c>
       <c r="Y78" t="s">
-        <v>614</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>65799</v>
       </c>
-      <c r="B79" t="n">
-        <v>11835</v>
-      </c>
-      <c r="C79" t="s">
-        <v>615</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>616</v>
+        <v>483</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>617</v>
+        <v>484</v>
       </c>
       <c r="J79" t="s">
-        <v>618</v>
+        <v>485</v>
       </c>
       <c r="K79" t="s">
-        <v>619</v>
+        <v>486</v>
       </c>
       <c r="L79" t="s">
-        <v>620</v>
+        <v>487</v>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>611</v>
+        <v>488</v>
       </c>
       <c r="O79" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="P79" t="s"/>
-      <c r="Q79" t="n">
-        <v>5</v>
-      </c>
-      <c r="R79" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
       <c r="S79" t="s"/>
       <c r="T79" t="s"/>
-      <c r="U79" t="n">
-        <v>4</v>
-      </c>
+      <c r="U79" t="s"/>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>612</v>
+        <v>489</v>
       </c>
       <c r="X79" t="s">
-        <v>613</v>
+        <v>490</v>
       </c>
       <c r="Y79" t="s">
-        <v>621</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>65799</v>
       </c>
-      <c r="B80" t="n">
-        <v>1672</v>
-      </c>
-      <c r="C80" t="s">
-        <v>622</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>623</v>
+        <v>492</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s">
-        <v>624</v>
+        <v>493</v>
       </c>
       <c r="J80" t="s">
-        <v>625</v>
+        <v>494</v>
       </c>
       <c r="K80" t="s">
-        <v>626</v>
+        <v>495</v>
       </c>
       <c r="L80" t="s">
-        <v>627</v>
+        <v>496</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>611</v>
+        <v>488</v>
       </c>
       <c r="O80" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P80" t="s"/>
-      <c r="Q80" t="s"/>
-      <c r="R80" t="s"/>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
       <c r="S80" t="s"/>
       <c r="T80" t="s"/>
-      <c r="U80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
       <c r="V80" t="n">
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>628</v>
+        <v>489</v>
       </c>
       <c r="X80" t="s">
-        <v>629</v>
+        <v>490</v>
       </c>
       <c r="Y80" t="s">
-        <v>630</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>65799</v>
       </c>
-      <c r="B81" t="n">
-        <v>48932</v>
-      </c>
-      <c r="C81" t="s">
-        <v>631</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>632</v>
+        <v>498</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I81" t="s">
-        <v>633</v>
+        <v>499</v>
       </c>
       <c r="J81" t="s">
-        <v>634</v>
+        <v>500</v>
       </c>
       <c r="K81" t="s">
-        <v>635</v>
+        <v>501</v>
       </c>
       <c r="L81" t="s">
-        <v>636</v>
+        <v>502</v>
       </c>
       <c r="M81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>637</v>
+        <v>488</v>
       </c>
       <c r="O81" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P81" t="s"/>
-      <c r="Q81" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q81" t="s"/>
       <c r="R81" t="s"/>
-      <c r="S81" t="n">
-        <v>5</v>
-      </c>
+      <c r="S81" t="s"/>
       <c r="T81" t="s"/>
-      <c r="U81" t="n">
-        <v>4</v>
-      </c>
+      <c r="U81" t="s"/>
       <c r="V81" t="n">
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>638</v>
+        <v>503</v>
       </c>
       <c r="X81" t="s">
-        <v>639</v>
+        <v>504</v>
       </c>
       <c r="Y81" t="s">
-        <v>640</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>65799</v>
       </c>
-      <c r="B82" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C82" t="s">
-        <v>641</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>642</v>
+        <v>506</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>643</v>
+        <v>507</v>
       </c>
       <c r="J82" t="s">
-        <v>644</v>
+        <v>508</v>
       </c>
       <c r="K82" t="s">
-        <v>645</v>
+        <v>509</v>
       </c>
       <c r="L82" t="s">
-        <v>646</v>
+        <v>510</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>637</v>
+        <v>488</v>
       </c>
       <c r="O82" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P82" t="s"/>
-      <c r="Q82" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q82" t="s"/>
       <c r="R82" t="s"/>
       <c r="S82" t="s"/>
       <c r="T82" t="s"/>
-      <c r="U82" t="n">
-        <v>5</v>
-      </c>
+      <c r="U82" t="s"/>
       <c r="V82" t="n">
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>638</v>
+        <v>511</v>
       </c>
       <c r="X82" t="s">
-        <v>639</v>
+        <v>512</v>
       </c>
       <c r="Y82" t="s">
-        <v>647</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>65799</v>
       </c>
-      <c r="B83" t="n">
-        <v>117843</v>
-      </c>
-      <c r="C83" t="s">
-        <v>648</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>649</v>
+        <v>514</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" t="s">
-        <v>650</v>
+        <v>515</v>
       </c>
       <c r="J83" t="s">
-        <v>651</v>
+        <v>516</v>
       </c>
       <c r="K83" t="s">
-        <v>652</v>
+        <v>517</v>
       </c>
       <c r="L83" t="s">
-        <v>653</v>
+        <v>518</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>654</v>
+        <v>488</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
-      </c>
-      <c r="P83" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
       <c r="R83" t="s"/>
       <c r="S83" t="s"/>
       <c r="T83" t="s"/>
-      <c r="U83" t="n">
-        <v>5</v>
-      </c>
+      <c r="U83" t="s"/>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="s">
+        <v>519</v>
+      </c>
+      <c r="X83" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>522</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>523</v>
+      </c>
+      <c r="J84" t="s">
+        <v>516</v>
+      </c>
+      <c r="K84" t="s">
+        <v>524</v>
+      </c>
+      <c r="L84" t="s">
+        <v>525</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>488</v>
+      </c>
+      <c r="O84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>519</v>
+      </c>
+      <c r="X84" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>527</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>528</v>
+      </c>
+      <c r="J85" t="s">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s">
+        <v>529</v>
+      </c>
+      <c r="L85" t="s">
+        <v>530</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>488</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>531</v>
+      </c>
+      <c r="X85" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>534</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>535</v>
+      </c>
+      <c r="J86" t="s">
+        <v>536</v>
+      </c>
+      <c r="K86" t="s">
+        <v>537</v>
+      </c>
+      <c r="L86" t="s">
+        <v>538</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>539</v>
+      </c>
+      <c r="X86" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>542</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>543</v>
+      </c>
+      <c r="J87" t="s">
+        <v>544</v>
+      </c>
+      <c r="K87" t="s">
+        <v>545</v>
+      </c>
+      <c r="L87" t="s">
+        <v>546</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>488</v>
+      </c>
+      <c r="O87" t="s">
+        <v>89</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>547</v>
+      </c>
+      <c r="X87" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>550</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>551</v>
+      </c>
+      <c r="J88" t="s">
+        <v>552</v>
+      </c>
+      <c r="K88" t="s">
+        <v>553</v>
+      </c>
+      <c r="L88" t="s">
+        <v>554</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>488</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>555</v>
+      </c>
+      <c r="X88" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>558</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>559</v>
+      </c>
+      <c r="J89" t="s">
+        <v>560</v>
+      </c>
+      <c r="K89" t="s">
+        <v>561</v>
+      </c>
+      <c r="L89" t="s">
+        <v>562</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>488</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>555</v>
+      </c>
+      <c r="X89" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>564</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>565</v>
+      </c>
+      <c r="J90" t="s">
+        <v>566</v>
+      </c>
+      <c r="K90" t="s">
+        <v>567</v>
+      </c>
+      <c r="L90" t="s">
+        <v>568</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>569</v>
+      </c>
+      <c r="O90" t="s">
+        <v>67</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>570</v>
+      </c>
+      <c r="X90" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>574</v>
+      </c>
+      <c r="J91" t="s">
+        <v>575</v>
+      </c>
+      <c r="K91" t="s">
+        <v>576</v>
+      </c>
+      <c r="L91" t="s">
+        <v>577</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>578</v>
+      </c>
+      <c r="X91" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>581</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>582</v>
+      </c>
+      <c r="J92" t="s">
+        <v>583</v>
+      </c>
+      <c r="K92" t="s">
+        <v>584</v>
+      </c>
+      <c r="L92" t="s">
+        <v>585</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>586</v>
+      </c>
+      <c r="O92" t="s">
+        <v>89</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>578</v>
+      </c>
+      <c r="X92" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>588</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>589</v>
+      </c>
+      <c r="J93" t="s">
+        <v>590</v>
+      </c>
+      <c r="K93" t="s">
+        <v>591</v>
+      </c>
+      <c r="L93" t="s">
+        <v>592</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>586</v>
+      </c>
+      <c r="O93" t="s">
+        <v>67</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>593</v>
+      </c>
+      <c r="X93" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>596</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>597</v>
+      </c>
+      <c r="J94" t="s">
+        <v>598</v>
+      </c>
+      <c r="K94" t="s">
+        <v>599</v>
+      </c>
+      <c r="L94" t="s">
+        <v>600</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>569</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>601</v>
+      </c>
+      <c r="X94" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>604</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>605</v>
+      </c>
+      <c r="J95" t="s">
+        <v>606</v>
+      </c>
+      <c r="K95" t="s">
+        <v>607</v>
+      </c>
+      <c r="L95" t="s">
+        <v>608</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>569</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>601</v>
+      </c>
+      <c r="X95" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>610</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>611</v>
+      </c>
+      <c r="J96" t="s">
+        <v>612</v>
+      </c>
+      <c r="K96" t="s">
+        <v>613</v>
+      </c>
+      <c r="L96" t="s">
+        <v>614</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>615</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>616</v>
+      </c>
+      <c r="X96" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>619</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>620</v>
+      </c>
+      <c r="J97" t="s">
+        <v>621</v>
+      </c>
+      <c r="K97" t="s">
+        <v>622</v>
+      </c>
+      <c r="L97" t="s">
+        <v>623</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>615</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>624</v>
+      </c>
+      <c r="X97" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>627</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>628</v>
+      </c>
+      <c r="J98" t="s">
+        <v>629</v>
+      </c>
+      <c r="K98" t="s">
+        <v>367</v>
+      </c>
+      <c r="L98" t="s">
+        <v>630</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>615</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>631</v>
+      </c>
+      <c r="X98" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>634</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>635</v>
+      </c>
+      <c r="J99" t="s">
+        <v>636</v>
+      </c>
+      <c r="K99" t="s">
+        <v>637</v>
+      </c>
+      <c r="L99" t="s">
         <v>638</v>
       </c>
-      <c r="X83" t="s">
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>615</v>
+      </c>
+      <c r="O99" t="s">
+        <v>67</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>631</v>
+      </c>
+      <c r="X99" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y99" t="s">
         <v>639</v>
       </c>
-      <c r="Y83" t="s">
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>640</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>641</v>
+      </c>
+      <c r="J100" t="s">
+        <v>636</v>
+      </c>
+      <c r="K100" t="s">
+        <v>642</v>
+      </c>
+      <c r="L100" t="s">
+        <v>643</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>615</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>631</v>
+      </c>
+      <c r="X100" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>645</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>646</v>
+      </c>
+      <c r="J101" t="s">
+        <v>647</v>
+      </c>
+      <c r="K101" t="s">
+        <v>648</v>
+      </c>
+      <c r="L101" t="s">
+        <v>649</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>615</v>
+      </c>
+      <c r="O101" t="s">
+        <v>89</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>650</v>
+      </c>
+      <c r="X101" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>653</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>654</v>
+      </c>
+      <c r="J102" t="s">
         <v>655</v>
+      </c>
+      <c r="K102" t="s">
+        <v>656</v>
+      </c>
+      <c r="L102" t="s">
+        <v>657</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>658</v>
+      </c>
+      <c r="O102" t="s">
+        <v>67</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>659</v>
+      </c>
+      <c r="X102" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>662</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>663</v>
+      </c>
+      <c r="J103" t="s">
+        <v>664</v>
+      </c>
+      <c r="K103" t="s">
+        <v>665</v>
+      </c>
+      <c r="L103" t="s">
+        <v>666</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>658</v>
+      </c>
+      <c r="O103" t="s">
+        <v>89</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>659</v>
+      </c>
+      <c r="X103" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>668</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>669</v>
+      </c>
+      <c r="J104" t="s">
+        <v>670</v>
+      </c>
+      <c r="K104" t="s">
+        <v>671</v>
+      </c>
+      <c r="L104" t="s">
+        <v>672</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>658</v>
+      </c>
+      <c r="O104" t="s">
+        <v>67</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>673</v>
+      </c>
+      <c r="X104" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>676</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>677</v>
+      </c>
+      <c r="J105" t="s">
+        <v>678</v>
+      </c>
+      <c r="K105" t="s">
+        <v>679</v>
+      </c>
+      <c r="L105" t="s">
+        <v>680</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>681</v>
+      </c>
+      <c r="O105" t="s">
+        <v>67</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>682</v>
+      </c>
+      <c r="X105" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>685</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>686</v>
+      </c>
+      <c r="J106" t="s">
+        <v>687</v>
+      </c>
+      <c r="K106" t="s">
+        <v>688</v>
+      </c>
+      <c r="L106" t="s">
+        <v>689</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>681</v>
+      </c>
+      <c r="O106" t="s">
+        <v>73</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>682</v>
+      </c>
+      <c r="X106" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>65799</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>691</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>692</v>
+      </c>
+      <c r="J107" t="s">
+        <v>693</v>
+      </c>
+      <c r="K107" t="s">
+        <v>694</v>
+      </c>
+      <c r="L107" t="s">
+        <v>695</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>696</v>
+      </c>
+      <c r="O107" t="s">
+        <v>60</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>682</v>
+      </c>
+      <c r="X107" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
